--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="781">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -469,7 +469,172 @@
     <t xml:space="preserve">type_tax_use</t>
   </si>
   <si>
-    <t xml:space="preserve">fatturapa.fiscal_position</t>
+    <t xml:space="preserve">ir.model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.partner.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date.range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project.task.materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project.task.material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.fiscalyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.fiscal.year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.incoterms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.incoterms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.holidays.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr.leave.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.attribute.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.template.attribute.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.attribute.price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.template.attribute.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair.fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp.repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.quote.option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.order.template.option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procurement.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.uom.categ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.uom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.uom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule.lead.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation.lead.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule.line.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation.line.test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.action.rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.actions.report.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.actions.report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.payment.line'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.pack.operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.move.line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.picking.wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock.picking.batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.tax.kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italy.ade.tax.nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir.model.data</t>
   </si>
   <si>
     <t xml:space="preserve">xref</t>
@@ -589,178 +754,22 @@
     <t xml:space="preserve">l10n_it_einvoice_base.fatturapa_RF19</t>
   </si>
   <si>
-    <t xml:space="preserve">ir.model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.partner.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date.range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project.task.materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project.task.material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.fiscalyear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.fiscal.year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.incoterms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.incoterms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.holidays.status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr.leave.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.attribute.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.template.attribute.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.attribute.price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.template.attribute.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair.fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp.repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair.order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.quote.option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.order.template.option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procurement.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.uom.categ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.uom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.uom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule.lead.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation.lead.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule.line.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation.line.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.action.rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.actions.report.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.actions.report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.payment.line'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment.order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.pack.operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.move.line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.picking.wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock.picking.batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.tax.kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italy.ade.tax.nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir.model.data</t>
+    <t xml:space="preserve">product.product_uom_kgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_kgm</t>
   </si>
   <si>
     <t xml:space="preserve">product.product_uom_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">uom.product_uom_unit</t>
+    <t xml:space="preserve">uom.product_uom_ton</t>
   </si>
   <si>
     <t xml:space="preserve">account.data_account_type_asset</t>
@@ -1981,6 +1990,18 @@
     <t xml:space="preserve">account_payment_term_plus</t>
   </si>
   <si>
+    <t xml:space="preserve">ir.ui.view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view_account_config_settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res_config_settings_view_form</t>
+  </si>
+  <si>
     <t xml:space="preserve">payment_mode</t>
   </si>
   <si>
@@ -2036,6 +2057,39 @@
   </si>
   <si>
     <t xml:space="preserve">province_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_member_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatturapa_rea_liquidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rea_liquidation_state</t>
   </si>
   <si>
     <t xml:space="preserve">res.groups</t>
@@ -2318,7 +2372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2369,6 +2423,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2412,7 +2473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2430,6 +2491,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2513,19 +2578,19 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N76" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N408" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A413" activeCellId="0" sqref="A413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.3"/>
@@ -3930,13 +3995,9 @@
         <v>150</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F87" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="N87" s="3" t="s">
+      <c r="E87" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3945,16 +4006,12 @@
         <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J88" s="2"/>
-      <c r="N88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3963,16 +4020,12 @@
         <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F89" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J89" s="2"/>
-      <c r="N89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3981,16 +4034,12 @@
         <v>149</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="N90" s="3" t="s">
+      <c r="J90" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3999,16 +4048,12 @@
         <v>149</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F91" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="N91" s="3" t="s">
+      <c r="J91" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4017,16 +4062,12 @@
         <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F92" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="N92" s="3" t="s">
+      <c r="J92" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4035,16 +4076,12 @@
         <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J93" s="2"/>
-      <c r="N93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4053,16 +4090,12 @@
         <v>149</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J94" s="2"/>
-      <c r="N94" s="3" t="s">
+      <c r="J94" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4071,16 +4104,12 @@
         <v>149</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="N95" s="3" t="s">
+      <c r="J95" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4089,16 +4118,12 @@
         <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J96" s="2"/>
-      <c r="N96" s="3" t="s">
+      <c r="J96" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4107,16 +4132,12 @@
         <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="N97" s="3" t="s">
+      <c r="J97" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4125,16 +4146,12 @@
         <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="N98" s="3" t="s">
+      <c r="J98" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4143,16 +4160,12 @@
         <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F99" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="N99" s="3" t="s">
+      <c r="J99" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4161,16 +4174,12 @@
         <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F100" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="N100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4179,16 +4188,12 @@
         <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F101" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="N101" s="3" t="s">
+      <c r="J101" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4197,16 +4202,12 @@
         <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F102" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="N102" s="3" t="s">
+      <c r="J102" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4215,16 +4216,12 @@
         <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="N103" s="3" t="s">
+      <c r="J103" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4233,16 +4230,12 @@
         <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="N104" s="3" t="s">
+      <c r="J104" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4251,448 +4244,520 @@
         <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="N105" s="3" t="s">
+      <c r="I105" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>206</v>
+        <v>141</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="N114" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="N115" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="N116" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="N117" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="N118" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="N119" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="N120" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="N121" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="N122" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="N123" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="N124" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="N125" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="N126" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="N127" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="N128" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="N129" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="2"/>
+      <c r="N130" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" s="2"/>
+      <c r="N131" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q132" s="1" t="s">
+      <c r="J132" s="2"/>
+      <c r="N132" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F135" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>250</v>
@@ -4703,241 +4768,241 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V142" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="V144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="V146" s="2" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V147" s="2" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V148" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V149" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>284</v>
@@ -4948,38 +5013,38 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>286</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>289</v>
@@ -4990,108 +5055,108 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>291</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>298</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>301</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>302</v>
@@ -5102,630 +5167,630 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>262</v>
+      <c r="H165" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>262</v>
+      <c r="H166" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="V168" s="4"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>309</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="G170" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="J170" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="V170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>314</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>315</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J175" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G178" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>262</v>
+      <c r="J179" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>327</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>331</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>334</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>337</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>338</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>346</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="V200" s="2" t="s">
         <v>349</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="V201" s="2" t="s">
-        <v>351</v>
+      <c r="G201" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V202" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V203" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="S203" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>280</v>
+      <c r="S205" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>363</v>
@@ -5736,24 +5801,24 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>294</v>
+      <c r="G210" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>366</v>
@@ -5764,52 +5829,52 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>369</v>
+      <c r="I212" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>373</v>
@@ -5820,10 +5885,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>375</v>
@@ -5834,94 +5899,94 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>376</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>266</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>378</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>386</v>
@@ -5932,450 +5997,438 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>388</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>391</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>296</v>
+        <v>393</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>147</v>
+        <v>396</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G231" s="1"/>
-      <c r="J231" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="S231" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="V231" s="4"/>
+      <c r="G231" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G232" s="1"/>
-      <c r="J232" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="S232" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="V232" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="J233" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="S233" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H233" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="V233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="J234" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="S234" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H234" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="V234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H235" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H236" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D237" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H237" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H238" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H239" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="V242" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="V244" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D247" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H247" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H248" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H249" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="M250" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q250" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="R250" s="2" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="Q251" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y251" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H252" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q252" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="Q252" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y252" s="1" t="s">
+      <c r="R252" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>141</v>
@@ -6383,23 +6436,28 @@
       <c r="H253" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="V253" s="2"/>
+      <c r="Q253" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="Y253" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="Y254" s="1" t="s">
         <v>141</v>
@@ -6407,314 +6465,315 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V255" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="V255" s="2"/>
+      <c r="Y255" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q256" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y256" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>443</v>
+        <v>141</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="M257" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V257" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H258" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H258" s="2" t="s">
-        <v>446</v>
+      <c r="Q258" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V258" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D259" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H259" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="H259" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I260" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>450</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>451</v>
+        <v>141</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>452</v>
       </c>
+      <c r="I262" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D264" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H264" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D265" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H265" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D266" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H266" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="H266" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H267" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="H267" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>464</v>
+        <v>294</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D270" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H270" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="H270" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H272" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J272" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>141</v>
+        <v>472</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M274" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V274" s="2" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>473</v>
@@ -6725,80 +6784,86 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D276" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J276" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>476</v>
+      <c r="M276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V276" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D277" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J277" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="J277" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D278" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J278" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="J278" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J279" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="J279" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J280" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="J280" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>484</v>
@@ -6809,1639 +6874,1633 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>486</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>487</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D283" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J283" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="J283" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D284" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J284" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="J284" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>491</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>303</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G286" s="1" t="s">
         <v>493</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>495</v>
+      <c r="J287" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G288" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D289" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G289" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D290" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G290" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D291" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D292" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>263</v>
+        <v>505</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>507</v>
+        <v>330</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>508</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D296" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D297" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="V298" s="2" t="s">
+      <c r="G298" s="1" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>514</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>515</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D300" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V300" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D301" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I301" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I302" s="1" t="s">
+      <c r="G302" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>521</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>522</v>
+        <v>344</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D304" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I304" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D305" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I305" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D306" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D307" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="I307" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D308" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I308" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D309" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I309" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="I309" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D310" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D311" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I311" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D312" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q313" s="1" t="s">
         <v>540</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q314" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="V315" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q315" s="1" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D316" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q316" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="I316" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I317" s="1" t="s">
         <v>545</v>
+      </c>
+      <c r="V317" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G318" s="1" t="s">
         <v>547</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D319" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I319" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I320" s="1" t="s">
+      <c r="G320" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="I321" s="1" t="s">
-        <v>552</v>
+      <c r="G321" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D322" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I322" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D323" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I323" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D324" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D325" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D326" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D327" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I327" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D328" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I328" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D329" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D330" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I330" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D331" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D332" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>574</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>102</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G335" s="1" t="s">
-        <v>578</v>
+      <c r="I335" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D336" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I336" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D337" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G338" s="1" t="s">
+      <c r="I338" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>585</v>
+      <c r="I339" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D340" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="I340" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D341" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D342" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I342" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I343" s="1" t="s">
+      <c r="G343" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>595</v>
+        <v>364</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>596</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D348" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D349" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D350" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D351" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I351" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D352" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>387</v>
+        <v>607</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>610</v>
+        <v>390</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D356" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G356" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D357" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D358" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="I358" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I359" s="1" t="s">
-        <v>601</v>
+      <c r="G359" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>618</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>620</v>
+      <c r="I361" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>620</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I363" s="1" t="s">
-        <v>294</v>
+        <v>622</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>625</v>
+      <c r="I365" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D366" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I366" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="I366" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D367" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G367" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="I367" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D368" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I368" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="I368" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D369" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I369" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D370" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I370" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="I370" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D371" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G371" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D372" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="I372" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="I372" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I373" s="1" t="s">
+      <c r="G373" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>641</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>642</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>268</v>
+        <v>643</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>640</v>
+        <v>316</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>647</v>
+        <v>317</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>296</v>
+        <v>643</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G381" s="1" t="s">
+      <c r="I381" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>651</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="V383" s="2" t="s">
         <v>652</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>653</v>
+        <v>263</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F384" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>654</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>653</v>
+        <v>263</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V385" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G386" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="386" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="J386" s="4" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D387" s="2" t="s">
-        <v>120</v>
+      <c r="F387" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>656</v>
+        <v>195</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>659</v>
+        <v>112</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>661</v>
+        <v>114</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>123</v>
+        <v>663</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>123</v>
@@ -8450,15 +8509,15 @@
         <v>34</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>664</v>
+        <v>147</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>123</v>
@@ -8467,12 +8526,15 @@
         <v>34</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>123</v>
@@ -8481,12 +8543,12 @@
         <v>34</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>123</v>
@@ -8495,15 +8557,15 @@
         <v>34</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>123</v>
@@ -8512,15 +8574,12 @@
         <v>34</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G403" s="1" t="s">
-        <v>147</v>
+        <v>672</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>123</v>
@@ -8534,7 +8593,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>123</v>
@@ -8543,12 +8602,15 @@
         <v>34</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>662</v>
+        <v>673</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>123</v>
@@ -8557,7 +8619,7 @@
         <v>34</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>147</v>
@@ -8565,7 +8627,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>123</v>
@@ -8574,15 +8636,12 @@
         <v>34</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>147</v>
+        <v>675</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>123</v>
@@ -8591,354 +8650,456 @@
         <v>34</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>671</v>
+      <c r="G409" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>674</v>
+      <c r="G410" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>675</v>
+        <v>123</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B412" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D412" s="2" t="s">
+      <c r="B413" s="4"/>
+      <c r="C413" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="E412" s="1" t="s">
+      <c r="I413" s="4"/>
+      <c r="J413" s="4" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B413" s="2" t="s">
+      <c r="K413" s="4"/>
+      <c r="L413" s="4"/>
+      <c r="M413" s="4"/>
+      <c r="N413" s="4"/>
+      <c r="O413" s="4"/>
+      <c r="P413" s="4"/>
+      <c r="Q413" s="4"/>
+      <c r="R413" s="4"/>
+      <c r="S413" s="4"/>
+      <c r="T413" s="4"/>
+      <c r="U413" s="4"/>
+      <c r="V413" s="4"/>
+      <c r="W413" s="4"/>
+      <c r="X413" s="4"/>
+      <c r="Y413" s="4"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B414" s="4"/>
+      <c r="C414" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D413" s="2" t="s">
+      <c r="I414" s="4"/>
+      <c r="J414" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G413" s="1" t="s">
+      <c r="K414" s="4"/>
+      <c r="L414" s="4"/>
+      <c r="M414" s="4"/>
+      <c r="N414" s="4"/>
+      <c r="O414" s="4"/>
+      <c r="P414" s="4"/>
+      <c r="Q414" s="4"/>
+      <c r="R414" s="4"/>
+      <c r="S414" s="4"/>
+      <c r="T414" s="4"/>
+      <c r="U414" s="4"/>
+      <c r="V414" s="4"/>
+      <c r="W414" s="4"/>
+      <c r="X414" s="4"/>
+      <c r="Y414" s="4"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B415" s="4"/>
+      <c r="C415" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="I415" s="4"/>
+      <c r="J415" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D414" s="2" t="s">
+      <c r="K415" s="4"/>
+      <c r="L415" s="4"/>
+      <c r="M415" s="4"/>
+      <c r="N415" s="4"/>
+      <c r="O415" s="4"/>
+      <c r="P415" s="4"/>
+      <c r="Q415" s="4"/>
+      <c r="R415" s="4"/>
+      <c r="S415" s="4"/>
+      <c r="T415" s="4"/>
+      <c r="U415" s="4"/>
+      <c r="V415" s="4"/>
+      <c r="W415" s="4"/>
+      <c r="X415" s="4"/>
+      <c r="Y415" s="4"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B416" s="4"/>
+      <c r="C416" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="F414" s="2" t="s">
+      <c r="I416" s="4"/>
+      <c r="J416" s="4" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="K416" s="4"/>
+      <c r="L416" s="4"/>
+      <c r="M416" s="4"/>
+      <c r="N416" s="4"/>
+      <c r="O416" s="4"/>
+      <c r="P416" s="4"/>
+      <c r="Q416" s="4"/>
+      <c r="R416" s="4"/>
+      <c r="S416" s="4"/>
+      <c r="T416" s="4"/>
+      <c r="U416" s="4"/>
+      <c r="V416" s="4"/>
+      <c r="W416" s="4"/>
+      <c r="X416" s="4"/>
+      <c r="Y416" s="4"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B417" s="4"/>
+      <c r="C417" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D415" s="2" t="s">
+      <c r="I417" s="4"/>
+      <c r="J417" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F415" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H416" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="K417" s="4"/>
+      <c r="L417" s="4"/>
+      <c r="M417" s="4"/>
+      <c r="N417" s="4"/>
+      <c r="O417" s="4"/>
+      <c r="P417" s="4"/>
+      <c r="Q417" s="4"/>
+      <c r="R417" s="4"/>
+      <c r="S417" s="4"/>
+      <c r="T417" s="4"/>
+      <c r="U417" s="4"/>
+      <c r="V417" s="4"/>
+      <c r="W417" s="4"/>
+      <c r="X417" s="4"/>
+      <c r="Y417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E422" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>725</v>
+        <v>1</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>726</v>
@@ -8946,331 +9107,328 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="G432" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>731</v>
+        <v>701</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>192</v>
+        <v>690</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>734</v>
+      <c r="D436" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D437" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="G437" s="1" t="s">
-        <v>736</v>
+      <c r="E437" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>2</v>
+        <v>744</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>738</v>
+        <v>152</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D444" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="E444" s="1" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>746</v>
+        <v>152</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>746</v>
+        <v>152</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D446" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>94</v>
+      <c r="E446" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>662</v>
+        <v>26</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>665</v>
+        <v>757</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>661</v>
+        <v>759</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="G451" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>102</v>
+        <v>762</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>123</v>
+        <v>764</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>668</v>
+        <v>765</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>123</v>
+        <v>764</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>123</v>
@@ -9279,26 +9437,26 @@
         <v>34</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>102</v>
+        <v>669</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9307,15 +9465,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9324,15 +9479,15 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H458" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G458" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9341,12 +9496,15 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>662</v>
+        <v>768</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9355,12 +9513,15 @@
         <v>34</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>665</v>
+        <v>769</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9369,46 +9530,314 @@
         <v>34</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>760</v>
+        <v>771</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G464" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="466" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E466" s="0"/>
+      <c r="F466" s="0"/>
+      <c r="G466" s="0"/>
+      <c r="H466" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I466" s="0"/>
+      <c r="J466" s="0"/>
+      <c r="K466" s="0"/>
+      <c r="L466" s="0"/>
+      <c r="M466" s="0"/>
+      <c r="N466" s="0"/>
+      <c r="O466" s="0"/>
+      <c r="P466" s="0"/>
+      <c r="Q466" s="0"/>
+      <c r="R466" s="0"/>
+      <c r="S466" s="0"/>
+      <c r="T466" s="0"/>
+      <c r="U466" s="0"/>
+      <c r="V466" s="0"/>
+      <c r="W466" s="0"/>
+      <c r="X466" s="0"/>
+      <c r="Y466" s="0"/>
+    </row>
+    <row r="467" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E467" s="0"/>
+      <c r="F467" s="0"/>
+      <c r="G467" s="0"/>
+      <c r="H467" s="0"/>
+      <c r="I467" s="0"/>
+      <c r="J467" s="0"/>
+      <c r="K467" s="0"/>
+      <c r="L467" s="0"/>
+      <c r="M467" s="0"/>
+      <c r="N467" s="0"/>
+      <c r="O467" s="0"/>
+      <c r="P467" s="0"/>
+      <c r="Q467" s="0"/>
+      <c r="R467" s="0"/>
+      <c r="S467" s="0"/>
+      <c r="T467" s="0"/>
+      <c r="U467" s="0"/>
+      <c r="V467" s="0"/>
+      <c r="W467" s="0"/>
+      <c r="X467" s="0"/>
+      <c r="Y467" s="0"/>
+    </row>
+    <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E468" s="0"/>
+      <c r="F468" s="0"/>
+      <c r="G468" s="0"/>
+      <c r="H468" s="0"/>
+      <c r="I468" s="0"/>
+      <c r="J468" s="0"/>
+      <c r="K468" s="0"/>
+      <c r="L468" s="0"/>
+      <c r="M468" s="0"/>
+      <c r="N468" s="0"/>
+      <c r="O468" s="0"/>
+      <c r="P468" s="0"/>
+      <c r="Q468" s="0"/>
+      <c r="R468" s="0"/>
+      <c r="S468" s="0"/>
+      <c r="T468" s="0"/>
+      <c r="U468" s="0"/>
+      <c r="V468" s="0"/>
+      <c r="W468" s="0"/>
+      <c r="X468" s="0"/>
+      <c r="Y468" s="0"/>
+    </row>
+    <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E469" s="0"/>
+      <c r="F469" s="0"/>
+      <c r="G469" s="0"/>
+      <c r="H469" s="0"/>
+      <c r="I469" s="0"/>
+      <c r="J469" s="0"/>
+      <c r="K469" s="0"/>
+      <c r="L469" s="0"/>
+      <c r="M469" s="0"/>
+      <c r="N469" s="0"/>
+      <c r="O469" s="0"/>
+      <c r="P469" s="0"/>
+      <c r="Q469" s="0"/>
+      <c r="R469" s="0"/>
+      <c r="S469" s="0"/>
+      <c r="T469" s="0"/>
+      <c r="U469" s="0"/>
+      <c r="V469" s="0"/>
+      <c r="W469" s="0"/>
+      <c r="X469" s="0"/>
+      <c r="Y469" s="0"/>
+    </row>
+    <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B470" s="0"/>
+      <c r="C470" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E470" s="0"/>
+      <c r="F470" s="0"/>
+      <c r="G470" s="0"/>
+      <c r="H470" s="0"/>
+      <c r="I470" s="0"/>
+      <c r="J470" s="0"/>
+      <c r="K470" s="0"/>
+      <c r="L470" s="0"/>
+      <c r="M470" s="0"/>
+      <c r="N470" s="0"/>
+      <c r="O470" s="0"/>
+      <c r="P470" s="0"/>
+      <c r="Q470" s="0"/>
+      <c r="R470" s="0"/>
+      <c r="S470" s="0"/>
+      <c r="T470" s="0"/>
+      <c r="U470" s="0"/>
+      <c r="V470" s="0"/>
+      <c r="W470" s="0"/>
+      <c r="X470" s="0"/>
+      <c r="Y470" s="0"/>
+    </row>
+    <row r="471" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B471" s="0"/>
+      <c r="C471" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E471" s="0"/>
+      <c r="F471" s="0"/>
+      <c r="G471" s="0"/>
+      <c r="H471" s="0"/>
+      <c r="I471" s="0"/>
+      <c r="J471" s="0"/>
+      <c r="K471" s="0"/>
+      <c r="L471" s="0"/>
+      <c r="M471" s="0"/>
+      <c r="N471" s="0"/>
+      <c r="O471" s="0"/>
+      <c r="P471" s="0"/>
+      <c r="Q471" s="0"/>
+      <c r="R471" s="0"/>
+      <c r="S471" s="0"/>
+      <c r="T471" s="0"/>
+      <c r="U471" s="0"/>
+      <c r="V471" s="0"/>
+      <c r="W471" s="0"/>
+      <c r="X471" s="0"/>
+      <c r="Y471" s="0"/>
+    </row>
+    <row r="472" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B472" s="0"/>
+      <c r="C472" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E472" s="0"/>
+      <c r="F472" s="0"/>
+      <c r="G472" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H472" s="0"/>
+      <c r="I472" s="0"/>
+      <c r="J472" s="0"/>
+      <c r="K472" s="0"/>
+      <c r="L472" s="0"/>
+      <c r="M472" s="0"/>
+      <c r="N472" s="0"/>
+      <c r="O472" s="0"/>
+      <c r="P472" s="0"/>
+      <c r="Q472" s="0"/>
+      <c r="R472" s="0"/>
+      <c r="S472" s="0"/>
+      <c r="T472" s="0"/>
+      <c r="U472" s="0"/>
+      <c r="V472" s="0"/>
+      <c r="W472" s="0"/>
+      <c r="X472" s="0"/>
+      <c r="Y472" s="0"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="783">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -809,6 +809,12 @@
   </si>
   <si>
     <t xml:space="preserve">base_report_to_printer.printing_group_manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.partner_root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.partner_admin</t>
   </si>
   <si>
     <t xml:space="preserve">ir.module.module</t>
@@ -2578,12 +2584,12 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N408" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N117" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A413" activeCellId="0" sqref="A413"/>
+      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
@@ -4852,21 +4858,22 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="G143" s="1"/>
+      <c r="J143" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>150</v>
@@ -4877,11 +4884,10 @@
       <c r="H144" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="V144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>150</v>
@@ -4892,10 +4898,11 @@
       <c r="H145" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="V145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>150</v>
@@ -4909,7 +4916,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>150</v>
@@ -4923,24 +4930,21 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="V148" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>150</v>
@@ -4957,21 +4961,24 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="V150" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>150</v>
@@ -4985,7 +4992,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>150</v>
@@ -4999,7 +5006,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>150</v>
@@ -5013,7 +5020,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>150</v>
@@ -5022,26 +5029,26 @@
         <v>286</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>150</v>
@@ -5055,7 +5062,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>150</v>
@@ -5064,26 +5071,26 @@
         <v>291</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>150</v>
@@ -5097,7 +5104,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>150</v>
@@ -5111,7 +5118,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>150</v>
@@ -5125,7 +5132,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>150</v>
@@ -5134,40 +5141,40 @@
         <v>300</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>150</v>
@@ -5176,26 +5183,26 @@
         <v>304</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>150</v>
@@ -5203,59 +5210,55 @@
       <c r="D167" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>265</v>
+      <c r="H167" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G170" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J170" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>150</v>
@@ -5263,55 +5266,59 @@
       <c r="D171" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="G171" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="J171" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="V171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>150</v>
@@ -5320,32 +5327,32 @@
         <v>317</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J176" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>102</v>
@@ -5353,49 +5360,49 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G180" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>150</v>
@@ -5404,54 +5411,54 @@
         <v>324</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>150</v>
@@ -5460,54 +5467,54 @@
         <v>329</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>150</v>
@@ -5521,7 +5528,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>150</v>
@@ -5530,40 +5537,40 @@
         <v>336</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>150</v>
@@ -5572,54 +5579,54 @@
         <v>340</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>150</v>
@@ -5628,40 +5635,40 @@
         <v>345</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>150</v>
@@ -5670,40 +5677,40 @@
         <v>349</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="V202" s="2" t="s">
         <v>352</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>150</v>
@@ -5717,7 +5724,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>150</v>
@@ -5725,13 +5732,13 @@
       <c r="D204" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="V204" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>150</v>
@@ -5739,13 +5746,13 @@
       <c r="D205" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="S205" s="1" t="s">
+      <c r="F205" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>150</v>
@@ -5753,41 +5760,41 @@
       <c r="D206" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>344</v>
+      <c r="S206" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>150</v>
@@ -5801,7 +5808,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>150</v>
@@ -5810,26 +5817,26 @@
         <v>365</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>150</v>
@@ -5837,27 +5844,27 @@
       <c r="D212" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I212" s="1" t="s">
-        <v>297</v>
+      <c r="G212" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G213" s="1" t="s">
         <v>370</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>150</v>
@@ -5871,7 +5878,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>150</v>
@@ -5885,7 +5892,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>150</v>
@@ -5894,26 +5901,26 @@
         <v>375</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>150</v>
@@ -5922,40 +5929,40 @@
         <v>378</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>150</v>
@@ -5969,7 +5976,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>150</v>
@@ -5983,7 +5990,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>150</v>
@@ -5997,7 +6004,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>150</v>
@@ -6006,26 +6013,26 @@
         <v>388</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>150</v>
@@ -6039,7 +6046,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>150</v>
@@ -6047,105 +6054,100 @@
       <c r="D227" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I227" s="1" t="s">
-        <v>299</v>
+      <c r="G227" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>299</v>
+        <v>395</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>147</v>
+        <v>399</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>399</v>
+        <v>150</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G233" s="1"/>
-      <c r="J233" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="S233" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="V233" s="4"/>
+      <c r="I233" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>141</v>
@@ -6161,24 +6163,29 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="J235" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H235" s="2" t="s">
+      <c r="S235" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="V235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>406</v>
@@ -6189,10 +6196,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>408</v>
@@ -6203,10 +6210,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>410</v>
@@ -6217,10 +6224,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>412</v>
@@ -6231,10 +6238,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>414</v>
@@ -6245,10 +6252,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>416</v>
@@ -6259,10 +6266,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>418</v>
@@ -6273,55 +6280,55 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="V244" s="2" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="V245" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>425</v>
@@ -6332,10 +6339,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>427</v>
@@ -6346,10 +6353,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>429</v>
@@ -6360,10 +6367,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>431</v>
@@ -6374,10 +6381,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>433</v>
@@ -6388,10 +6395,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>435</v>
@@ -6402,33 +6409,24 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>141</v>
+        <v>437</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="M252" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q252" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="R252" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>141</v>
@@ -6436,19 +6434,22 @@
       <c r="H253" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="M253" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="Q253" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="Y253" s="1" t="s">
+      <c r="R253" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>141</v>
@@ -6457,7 +6458,7 @@
         <v>441</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>141</v>
+        <v>442</v>
       </c>
       <c r="Y254" s="1" t="s">
         <v>141</v>
@@ -6465,73 +6466,73 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="V255" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="Y255" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>443</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="V256" s="2"/>
       <c r="Y256" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V257" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y257" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q258" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>141</v>
       </c>
       <c r="V258" s="2" t="s">
@@ -6540,24 +6541,30 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="Q259" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V259" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>448</v>
@@ -6568,10 +6575,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>450</v>
@@ -6582,55 +6589,55 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>367</v>
+        <v>454</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>456</v>
@@ -6641,10 +6648,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>458</v>
@@ -6655,10 +6662,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>460</v>
@@ -6669,10 +6676,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>462</v>
@@ -6683,41 +6690,41 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>464</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>467</v>
@@ -6725,10 +6732,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>468</v>
@@ -6739,10 +6746,10 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>470</v>
@@ -6753,75 +6760,75 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J274" s="2" t="s">
-        <v>311</v>
+      <c r="H274" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>474</v>
+        <v>313</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V276" s="2" t="s">
-        <v>141</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>476</v>
+        <v>141</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="M277" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V277" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>478</v>
@@ -6832,10 +6839,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>480</v>
@@ -6846,10 +6853,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>482</v>
@@ -6860,10 +6867,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>484</v>
@@ -6874,38 +6881,38 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>486</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>295</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>488</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>489</v>
@@ -6916,10 +6923,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>491</v>
@@ -6930,52 +6937,52 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>493</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G288" s="1" t="s">
         <v>496</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>497</v>
@@ -6986,10 +6993,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>499</v>
@@ -7000,10 +7007,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>501</v>
@@ -7014,10 +7021,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>503</v>
@@ -7028,66 +7035,66 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I293" s="1" t="s">
+      <c r="G293" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>507</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>265</v>
+        <v>508</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>266</v>
+        <v>509</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>509</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>510</v>
@@ -7098,10 +7105,10 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>512</v>
@@ -7112,94 +7119,94 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I299" s="1" t="s">
-        <v>265</v>
+      <c r="G299" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="V300" s="2" t="s">
         <v>516</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I301" s="1" t="s">
+      <c r="V301" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G302" s="1" t="s">
+      <c r="I302" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I303" s="1" t="s">
-        <v>344</v>
+      <c r="G303" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>524</v>
@@ -7210,24 +7217,24 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G306" s="1" t="s">
+      <c r="I306" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>528</v>
@@ -7238,24 +7245,24 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="I308" s="1" t="s">
+      <c r="G308" s="1" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>532</v>
@@ -7266,52 +7273,52 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="I310" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="I311" s="1" t="s">
+      <c r="G311" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G312" s="1" t="s">
+      <c r="I312" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>540</v>
@@ -7322,136 +7329,136 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F314" s="2" t="s">
-        <v>356</v>
+      <c r="G314" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q315" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>353</v>
       </c>
       <c r="Q316" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="V317" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q317" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>344</v>
+      <c r="V318" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>447</v>
+        <v>549</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>548</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G320" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I320" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>551</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="I322" s="1" t="s">
         <v>553</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>554</v>
@@ -7462,24 +7469,24 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="I324" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>558</v>
@@ -7490,10 +7497,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>560</v>
@@ -7504,24 +7511,24 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="I327" s="1" t="s">
+      <c r="G327" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>564</v>
@@ -7532,38 +7539,38 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G329" s="1" t="s">
+      <c r="I329" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I330" s="1" t="s">
+      <c r="G330" s="1" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>570</v>
@@ -7574,136 +7581,136 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G332" s="1" t="s">
+      <c r="I332" s="1" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I333" s="1" t="s">
+      <c r="G333" s="1" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>576</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>102</v>
+        <v>510</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>579</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="I337" s="1" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I338" s="1" t="s">
+      <c r="G338" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>584</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D340" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I340" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>587</v>
@@ -7714,108 +7721,108 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="I342" s="1" t="s">
+      <c r="G342" s="1" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G343" s="1" t="s">
+      <c r="I343" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="I344" s="1" t="s">
-        <v>271</v>
+      <c r="G344" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>595</v>
+        <v>273</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>364</v>
+        <v>596</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>316</v>
+        <v>597</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>595</v>
+        <v>366</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D348" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>599</v>
@@ -7826,10 +7833,10 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>601</v>
@@ -7840,24 +7847,24 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I351" s="1" t="s">
+      <c r="G351" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>605</v>
@@ -7868,10 +7875,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>607</v>
@@ -7882,52 +7889,52 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>609</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>269</v>
+        <v>608</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>611</v>
+        <v>392</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>612</v>
@@ -7938,10 +7945,10 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>614</v>
@@ -7952,10 +7959,10 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>616</v>
@@ -7966,136 +7973,136 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I360" s="1" t="s">
-        <v>102</v>
+      <c r="G360" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>604</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G363" s="1" t="s">
+      <c r="I363" s="1" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I364" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>297</v>
+        <v>619</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>626</v>
+        <v>299</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="I367" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I368" s="1" t="s">
+      <c r="G368" s="1" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>631</v>
@@ -8106,10 +8113,10 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>633</v>
@@ -8120,251 +8127,254 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G371" s="1" t="s">
+      <c r="I371" s="1" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="I372" s="1" t="s">
+      <c r="G372" s="1" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="I373" s="1" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I374" s="1" t="s">
-        <v>319</v>
+      <c r="G374" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>643</v>
+        <v>321</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>643</v>
+        <v>319</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>651</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>299</v>
+        <v>652</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="G383" s="1" t="s">
         <v>653</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="I384" s="1" t="s">
-        <v>299</v>
+      <c r="G384" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D385" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F385" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="V385" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="386" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C386" s="4" t="s">
+      <c r="F386" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="V386" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H386" s="4" t="s">
+    </row>
+    <row r="387" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="J386" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
+      <c r="H387" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F387" s="2" t="s">
+      <c r="J387" s="4" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D388" s="2" t="s">
-        <v>2</v>
+      <c r="F388" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,88 +8385,85 @@
         <v>26</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>195</v>
+        <v>664</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,10 +8474,10 @@
         <v>26</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,43 +8488,40 @@
         <v>26</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>663</v>
+        <v>195</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C399" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G399" s="1" t="s">
-        <v>147</v>
+      <c r="F399" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>123</v>
@@ -8526,15 +8530,15 @@
         <v>34</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>668</v>
+        <v>147</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>123</v>
@@ -8545,10 +8549,13 @@
       <c r="D401" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="G401" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>123</v>
@@ -8557,15 +8564,12 @@
         <v>34</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G402" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>123</v>
@@ -8576,10 +8580,13 @@
       <c r="D403" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="G403" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>123</v>
@@ -8588,12 +8595,12 @@
         <v>34</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>123</v>
@@ -8602,15 +8609,12 @@
         <v>34</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>147</v>
+        <v>670</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>123</v>
@@ -8619,7 +8623,7 @@
         <v>34</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>147</v>
@@ -8627,7 +8631,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>123</v>
@@ -8636,12 +8640,15 @@
         <v>34</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>123</v>
@@ -8650,12 +8657,12 @@
         <v>34</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>123</v>
@@ -8664,15 +8671,12 @@
         <v>34</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>123</v>
@@ -8689,7 +8693,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>123</v>
@@ -8698,58 +8702,40 @@
         <v>34</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B413" s="4"/>
       <c r="C413" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
-      <c r="G413" s="5"/>
-      <c r="H413" s="4" t="s">
+      <c r="D413" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="I413" s="4"/>
-      <c r="J413" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="K413" s="4"/>
-      <c r="L413" s="4"/>
-      <c r="M413" s="4"/>
-      <c r="N413" s="4"/>
-      <c r="O413" s="4"/>
-      <c r="P413" s="4"/>
-      <c r="Q413" s="4"/>
-      <c r="R413" s="4"/>
-      <c r="S413" s="4"/>
-      <c r="T413" s="4"/>
-      <c r="U413" s="4"/>
-      <c r="V413" s="4"/>
-      <c r="W413" s="4"/>
-      <c r="X413" s="4"/>
-      <c r="Y413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="1" t="s">
@@ -8784,7 +8770,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="1" t="s">
@@ -8819,7 +8805,7 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="1" t="s">
@@ -8854,7 +8840,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="1" t="s">
@@ -8888,22 +8874,43 @@
       <c r="Y417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B418" s="4"/>
+      <c r="C418" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="I418" s="4"/>
+      <c r="J418" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>692</v>
-      </c>
+      <c r="K418" s="4"/>
+      <c r="L418" s="4"/>
+      <c r="M418" s="4"/>
+      <c r="N418" s="4"/>
+      <c r="O418" s="4"/>
+      <c r="P418" s="4"/>
+      <c r="Q418" s="4"/>
+      <c r="R418" s="4"/>
+      <c r="S418" s="4"/>
+      <c r="T418" s="4"/>
+      <c r="U418" s="4"/>
+      <c r="V418" s="4"/>
+      <c r="W418" s="4"/>
+      <c r="X418" s="4"/>
+      <c r="Y418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>693</v>
@@ -8914,118 +8921,115 @@
       <c r="D419" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G419" s="1" t="s">
-        <v>696</v>
-      </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D420" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G420" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D421" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E421" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="G421" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D422" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G422" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D423" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F423" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D424" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F424" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D425" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>714</v>
@@ -9034,160 +9038,166 @@
         <v>1</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>694</v>
+        <v>715</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D428" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E428" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D429" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E429" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D430" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G430" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D431" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E431" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="E431" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D432" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E432" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F433" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H433" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D434" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="H434" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>152</v>
+        <v>692</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,10 +9207,7 @@
       <c r="C436" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D436" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="G436" s="1" t="s">
+      <c r="E436" s="1" t="s">
         <v>742</v>
       </c>
     </row>
@@ -9211,8 +9218,11 @@
       <c r="C437" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="D437" s="2" t="s">
         <v>743</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9223,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,7 +9244,7 @@
         <v>26</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9244,10 +9254,7 @@
       <c r="C440" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D440" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="G440" s="1" t="s">
+      <c r="E440" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -9272,8 +9279,11 @@
       <c r="C442" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="D442" s="2" t="s">
         <v>750</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,7 +9294,7 @@
         <v>26</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,7 +9305,7 @@
         <v>26</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,10 +9315,7 @@
       <c r="C445" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D445" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G445" s="1" t="s">
+      <c r="E445" s="1" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9319,8 +9326,11 @@
       <c r="C446" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>2</v>
+      <c r="D446" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,26 +9341,23 @@
         <v>26</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>755</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>756</v>
+        <v>152</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="E448" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>26</v>
@@ -9364,85 +9371,85 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D450" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="E450" s="1" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D452" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="E452" s="1" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C453" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D453" s="2" t="s">
+      <c r="E453" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H454" s="2" t="s">
-        <v>94</v>
+        <v>767</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>123</v>
+        <v>766</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>669</v>
+        <v>93</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>123</v>
@@ -9451,12 +9458,12 @@
         <v>34</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9465,12 +9472,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9479,15 +9486,12 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9496,7 +9500,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G459" s="1" t="s">
         <v>102</v>
@@ -9504,7 +9508,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9513,7 +9517,7 @@
         <v>34</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>102</v>
@@ -9521,7 +9525,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9530,12 +9534,15 @@
         <v>34</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>675</v>
+        <v>771</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>123</v>
@@ -9544,15 +9551,12 @@
         <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G462" s="1" t="s">
-        <v>102</v>
+        <v>677</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>123</v>
@@ -9561,7 +9565,7 @@
         <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>102</v>
@@ -9569,35 +9573,35 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>773</v>
       </c>
+      <c r="G464" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>123</v>
+        <v>774</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D465" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="466" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>123</v>
@@ -9606,35 +9610,15 @@
         <v>34</v>
       </c>
       <c r="D466" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="H466" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E466" s="0"/>
-      <c r="F466" s="0"/>
-      <c r="G466" s="0"/>
-      <c r="H466" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I466" s="0"/>
-      <c r="J466" s="0"/>
-      <c r="K466" s="0"/>
-      <c r="L466" s="0"/>
-      <c r="M466" s="0"/>
-      <c r="N466" s="0"/>
-      <c r="O466" s="0"/>
-      <c r="P466" s="0"/>
-      <c r="Q466" s="0"/>
-      <c r="R466" s="0"/>
-      <c r="S466" s="0"/>
-      <c r="T466" s="0"/>
-      <c r="U466" s="0"/>
-      <c r="V466" s="0"/>
-      <c r="W466" s="0"/>
-      <c r="X466" s="0"/>
-      <c r="Y466" s="0"/>
-    </row>
-    <row r="467" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="467" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>123</v>
@@ -9643,12 +9627,14 @@
         <v>34</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E467" s="0"/>
       <c r="F467" s="0"/>
       <c r="G467" s="0"/>
-      <c r="H467" s="0"/>
+      <c r="H467" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I467" s="0"/>
       <c r="J467" s="0"/>
       <c r="K467" s="0"/>
@@ -9669,7 +9655,7 @@
     </row>
     <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>123</v>
@@ -9678,7 +9664,7 @@
         <v>34</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E468" s="0"/>
       <c r="F468" s="0"/>
@@ -9704,7 +9690,7 @@
     </row>
     <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>123</v>
@@ -9713,7 +9699,7 @@
         <v>34</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="E469" s="0"/>
       <c r="F469" s="0"/>
@@ -9739,14 +9725,16 @@
     </row>
     <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B470" s="0"/>
+        <v>774</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C470" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>776</v>
+        <v>670</v>
       </c>
       <c r="E470" s="0"/>
       <c r="F470" s="0"/>
@@ -9812,13 +9800,11 @@
         <v>26</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>589</v>
+        <v>780</v>
       </c>
       <c r="E472" s="0"/>
       <c r="F472" s="0"/>
-      <c r="G472" s="1" t="s">
-        <v>780</v>
-      </c>
+      <c r="G472" s="0"/>
       <c r="H472" s="0"/>
       <c r="I472" s="0"/>
       <c r="J472" s="0"/>
@@ -9838,7 +9824,41 @@
       <c r="X472" s="0"/>
       <c r="Y472" s="0"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B473" s="0"/>
+      <c r="C473" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E473" s="0"/>
+      <c r="F473" s="0"/>
+      <c r="G473" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H473" s="0"/>
+      <c r="I473" s="0"/>
+      <c r="J473" s="0"/>
+      <c r="K473" s="0"/>
+      <c r="L473" s="0"/>
+      <c r="M473" s="0"/>
+      <c r="N473" s="0"/>
+      <c r="O473" s="0"/>
+      <c r="P473" s="0"/>
+      <c r="Q473" s="0"/>
+      <c r="R473" s="0"/>
+      <c r="S473" s="0"/>
+      <c r="T473" s="0"/>
+      <c r="U473" s="0"/>
+      <c r="V473" s="0"/>
+      <c r="W473" s="0"/>
+      <c r="X473" s="0"/>
+      <c r="Y473" s="0"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="784">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -2294,6 +2294,9 @@
   </si>
   <si>
     <t xml:space="preserve">zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify_email</t>
   </si>
   <si>
     <t xml:space="preserve">res.users</t>
@@ -2378,7 +2381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2436,6 +2439,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2479,7 +2489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2501,6 +2511,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2584,12 +2598,12 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N117" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N427" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A144" activeCellId="0" sqref="A144"/>
+      <selection pane="bottomLeft" activeCell="B444" activeCellId="0" sqref="B444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>
@@ -9355,115 +9369,136 @@
         <v>757</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
+    <row r="449" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J449" s="4"/>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+      <c r="M449" s="4"/>
+      <c r="N449" s="4"/>
+      <c r="O449" s="4"/>
+      <c r="P449" s="4"/>
+      <c r="Q449" s="4"/>
+      <c r="R449" s="4"/>
+      <c r="S449" s="4"/>
+      <c r="T449" s="4"/>
+      <c r="U449" s="4"/>
+      <c r="V449" s="4"/>
+      <c r="W449" s="4"/>
+      <c r="X449" s="4"/>
+      <c r="Y449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D450" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E450" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="E451" s="1" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="E453" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E454" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H455" s="2" t="s">
-        <v>94</v>
+        <v>768</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>123</v>
+        <v>767</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>671</v>
+        <v>93</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>123</v>
@@ -9472,12 +9507,12 @@
         <v>34</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>123</v>
@@ -9486,12 +9521,12 @@
         <v>34</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>123</v>
@@ -9500,15 +9535,12 @@
         <v>34</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G459" s="1" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>123</v>
@@ -9525,7 +9557,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>123</v>
@@ -9542,7 +9574,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>123</v>
@@ -9551,12 +9583,15 @@
         <v>34</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>677</v>
+        <v>772</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>123</v>
@@ -9565,15 +9600,12 @@
         <v>34</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="G463" s="1" t="s">
-        <v>102</v>
+        <v>677</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>123</v>
@@ -9590,35 +9622,35 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C465" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>775</v>
+      <c r="G465" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>123</v>
+        <v>775</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="H466" s="2" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="467" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>123</v>
@@ -9627,13 +9659,13 @@
         <v>34</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>672</v>
+        <v>777</v>
       </c>
       <c r="E467" s="0"/>
       <c r="F467" s="0"/>
       <c r="G467" s="0"/>
       <c r="H467" s="2" t="s">
-        <v>102</v>
+        <v>670</v>
       </c>
       <c r="I467" s="0"/>
       <c r="J467" s="0"/>
@@ -9655,7 +9687,7 @@
     </row>
     <row r="468" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>123</v>
@@ -9664,12 +9696,14 @@
         <v>34</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E468" s="0"/>
       <c r="F468" s="0"/>
       <c r="G468" s="0"/>
-      <c r="H468" s="0"/>
+      <c r="H468" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I468" s="0"/>
       <c r="J468" s="0"/>
       <c r="K468" s="0"/>
@@ -9690,7 +9724,7 @@
     </row>
     <row r="469" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>123</v>
@@ -9699,7 +9733,7 @@
         <v>34</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E469" s="0"/>
       <c r="F469" s="0"/>
@@ -9725,7 +9759,7 @@
     </row>
     <row r="470" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>123</v>
@@ -9734,7 +9768,7 @@
         <v>34</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E470" s="0"/>
       <c r="F470" s="0"/>
@@ -9760,14 +9794,16 @@
     </row>
     <row r="471" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B471" s="0"/>
+        <v>775</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C471" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="E471" s="0"/>
       <c r="F471" s="0"/>
@@ -9793,14 +9829,14 @@
     </row>
     <row r="472" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B472" s="0"/>
       <c r="C472" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E472" s="0"/>
       <c r="F472" s="0"/>
@@ -9826,20 +9862,18 @@
     </row>
     <row r="473" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B473" s="0"/>
       <c r="C473" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>591</v>
+        <v>781</v>
       </c>
       <c r="E473" s="0"/>
       <c r="F473" s="0"/>
-      <c r="G473" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="G473" s="0"/>
       <c r="H473" s="0"/>
       <c r="I473" s="0"/>
       <c r="J473" s="0"/>
@@ -9859,6 +9893,41 @@
       <c r="X473" s="0"/>
       <c r="Y473" s="0"/>
     </row>
+    <row r="474" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B474" s="0"/>
+      <c r="C474" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E474" s="0"/>
+      <c r="F474" s="0"/>
+      <c r="G474" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H474" s="0"/>
+      <c r="I474" s="0"/>
+      <c r="J474" s="0"/>
+      <c r="K474" s="0"/>
+      <c r="L474" s="0"/>
+      <c r="M474" s="0"/>
+      <c r="N474" s="0"/>
+      <c r="O474" s="0"/>
+      <c r="P474" s="0"/>
+      <c r="Q474" s="0"/>
+      <c r="R474" s="0"/>
+      <c r="S474" s="0"/>
+      <c r="T474" s="0"/>
+      <c r="U474" s="0"/>
+      <c r="V474" s="0"/>
+      <c r="W474" s="0"/>
+      <c r="X474" s="0"/>
+      <c r="Y474" s="0"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -757,19 +757,19 @@
     <t xml:space="preserve">product.product_uom_kgm</t>
   </si>
   <si>
+    <t xml:space="preserve">uom.product_uom_kgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom.product_uom_ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.product_uom_unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">uom.product_uom_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.product_uom_ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.product_uom_kgm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product.product_uom_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uom.product_uom_ton</t>
   </si>
   <si>
     <t xml:space="preserve">account.data_account_type_asset</t>
@@ -2597,13 +2597,13 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N427" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B444" activeCellId="0" sqref="B444"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N112" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="J136" activeCellId="0" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.3"/>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="790">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -58,6 +58,12 @@
     <t xml:space="preserve">14.0</t>
   </si>
   <si>
+    <t xml:space="preserve">15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">zero6</t>
   </si>
   <si>
@@ -85,6 +91,12 @@
     <t xml:space="preserve">zero14</t>
   </si>
   <si>
+    <t xml:space="preserve">zero15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero16</t>
+  </si>
+  <si>
     <t xml:space="preserve">powerp12</t>
   </si>
   <si>
@@ -92,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">powerp14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerp15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerp16</t>
   </si>
   <si>
     <t xml:space="preserve">librerp6</t>
@@ -2551,26 +2569,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y474"/>
+  <dimension ref="A1:AE476"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N131" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G143" activeCellId="0" sqref="1:1048576"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N235" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A235" activeCellId="0" sqref="A235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="27.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="27.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2622,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2643,61 +2655,79 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>2</v>
@@ -2705,1004 +2735,1004 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>1</v>
@@ -3710,5088 +3740,5082 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>154</v>
+        <v>81</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>199</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F114" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="I114" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="S115" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>245</v>
+        <v>147</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>247</v>
+        <v>147</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G139" s="2" t="s">
         <v>256</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G143" s="2"/>
-      <c r="H143" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H144" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G145" s="2"/>
       <c r="H145" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V149" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="V150" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="Z151" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="Z152" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>267</v>
+        <v>312</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>267</v>
+        <v>313</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>267</v>
+        <v>329</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="V203" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V204" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="Z205" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="S206" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="Z206" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>285</v>
+        <v>365</v>
+      </c>
+      <c r="U208" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>299</v>
+        <v>373</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>383</v>
+        <v>108</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>301</v>
+        <v>397</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>301</v>
+        <v>401</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>147</v>
+        <v>404</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G234" s="2"/>
-      <c r="J234" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="S234" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>401</v>
+        <v>156</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G235" s="2"/>
-      <c r="J235" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="S235" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>407</v>
+        <v>147</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="J236" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>409</v>
+        <v>147</v>
+      </c>
+      <c r="G237" s="2"/>
+      <c r="J237" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="V245" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>427</v>
+        <v>147</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="Z247" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="M253" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q253" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="R253" s="1" t="s">
-        <v>141</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q254" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y254" s="2" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q255" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y255" s="2" t="s">
-        <v>141</v>
+        <v>445</v>
+      </c>
+      <c r="O255" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S255" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y256" s="2" t="s">
-        <v>141</v>
+        <v>447</v>
+      </c>
+      <c r="S256" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE256" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y257" s="2" t="s">
-        <v>141</v>
+        <v>449</v>
+      </c>
+      <c r="S257" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE257" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M258" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V258" s="1" t="s">
-        <v>141</v>
+        <v>450</v>
+      </c>
+      <c r="AE258" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q259" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V259" s="1" t="s">
-        <v>141</v>
+        <v>451</v>
+      </c>
+      <c r="AE259" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>448</v>
+        <v>147</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
+      </c>
+      <c r="O260" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z260" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="S261" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z261" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>369</v>
+        <v>459</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>459</v>
+        <v>375</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>469</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>313</v>
+        <v>476</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>141</v>
+        <v>480</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M277" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V277" s="1" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="O279" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z279" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>297</v>
+        <v>491</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>492</v>
+        <v>303</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>308</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>267</v>
+        <v>511</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>268</v>
+        <v>513</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>512</v>
+        <v>338</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>513</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>267</v>
+        <v>518</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="V301" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>520</v>
+        <v>273</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="Z303" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>346</v>
+        <v>526</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>358</v>
+        <v>546</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q316" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q317" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="V318" s="1" t="s">
-        <v>548</v>
+        <v>359</v>
+      </c>
+      <c r="S318" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
+      </c>
+      <c r="S319" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I320" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
+      </c>
+      <c r="Z320" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>284</v>
+        <v>455</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>510</v>
+        <v>580</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>102</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="I343" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>273</v>
+        <v>598</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>600</v>
+        <v>372</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>392</v>
+        <v>615</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>271</v>
+        <v>616</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>615</v>
+        <v>398</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="I361" s="2" t="s">
-        <v>102</v>
+        <v>622</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="I362" s="2" t="s">
-        <v>606</v>
+        <v>624</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>623</v>
+        <v>108</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>299</v>
+        <v>630</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>321</v>
+        <v>646</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I376" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>273</v>
+        <v>651</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>645</v>
+        <v>324</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>652</v>
+        <v>325</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>301</v>
+        <v>651</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G384" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="V386" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="H387" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="J387" s="1" t="s">
-        <v>661</v>
+      <c r="A387" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>662</v>
+        <v>271</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>26</v>
+        <v>407</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F388" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z388" s="1" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>2</v>
+      <c r="A389" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>195</v>
+        <v>670</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>195</v>
+        <v>670</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>665</v>
+        <v>201</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>123</v>
+        <v>671</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>670</v>
+        <v>678</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>147</v>
+        <v>680</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G407" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>671</v>
+        <v>682</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>147</v>
+        <v>683</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>147</v>
+        <v>677</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>670</v>
+      <c r="G412" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>680</v>
       </c>
+      <c r="G413" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G414" s="2"/>
-      <c r="H414" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J414" s="1" t="s">
-        <v>683</v>
+        <v>40</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G415" s="2"/>
-      <c r="H415" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="J415" s="1" t="s">
-        <v>685</v>
+        <v>32</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G416" s="2"/>
       <c r="H416" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J416" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G417" s="2"/>
       <c r="H417" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J417" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G418" s="2"/>
       <c r="H418" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="J418" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G419" s="2"/>
+      <c r="H419" s="1" t="s">
         <v>694</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G420" s="2"/>
+      <c r="H420" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E420" s="2" t="s">
+      <c r="J420" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>699</v>
@@ -8802,21 +8826,21 @@
       <c r="D421" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E421" s="2" t="s">
-        <v>701</v>
-      </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E422" s="2" t="s">
         <v>703</v>
       </c>
       <c r="G422" s="2" t="s">
@@ -8825,7 +8849,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>705</v>
@@ -8836,13 +8860,13 @@
       <c r="D423" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F423" s="1" t="s">
+      <c r="E423" s="2" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>708</v>
@@ -8853,13 +8877,13 @@
       <c r="D424" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F424" s="1" t="s">
+      <c r="G424" s="2" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>711</v>
@@ -8870,13 +8894,13 @@
       <c r="D425" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H425" s="1" t="s">
+      <c r="F425" s="1" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>714</v>
@@ -8888,60 +8912,60 @@
         <v>715</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>723</v>
@@ -8952,13 +8976,13 @@
       <c r="D430" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="G430" s="2" t="s">
+      <c r="E430" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>726</v>
@@ -8975,7 +8999,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>729</v>
@@ -8986,13 +9010,13 @@
       <c r="D432" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E432" s="2" t="s">
+      <c r="G432" s="2" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>732</v>
@@ -9006,570 +9030,604 @@
       <c r="E433" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="H433" s="1" t="s">
-        <v>735</v>
-      </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F434" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E434" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="H434" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E435" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E435" s="2" t="s">
+      <c r="H435" s="1" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>152</v>
+        <v>698</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>742</v>
+        <v>1</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>152</v>
+        <v>698</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>746</v>
+        <v>32</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>749</v>
+        <v>32</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>751</v>
+        <v>32</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E443" s="2" t="s">
-        <v>752</v>
+        <v>32</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>753</v>
+        <v>32</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>756</v>
+        <v>32</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>2</v>
+        <v>760</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>757</v>
+        <v>32</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="I449" s="1" t="s">
-        <v>141</v>
+      <c r="A449" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>759</v>
+        <v>158</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>760</v>
+        <v>32</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>26</v>
+      <c r="A451" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>765</v>
+        <v>32</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G455" s="2" t="s">
-        <v>769</v>
+        <v>32</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H456" s="1" t="s">
-        <v>94</v>
+        <v>771</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>123</v>
+        <v>773</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>671</v>
+        <v>774</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>123</v>
+        <v>773</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>674</v>
+        <v>99</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G460" s="2" t="s">
-        <v>102</v>
+        <v>680</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G461" s="2" t="s">
-        <v>102</v>
+        <v>676</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>677</v>
+        <v>777</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G465" s="2" t="s">
-        <v>102</v>
+        <v>683</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H467" s="1" t="s">
-        <v>670</v>
+        <v>780</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>123</v>
+        <v>781</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="H468" s="1" t="s">
-        <v>102</v>
+        <v>782</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>671</v>
+        <v>783</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>781</v>
+        <v>676</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G474" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="824">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -406,6 +406,9 @@
     <t xml:space="preserve">account.move</t>
   </si>
   <si>
+    <t xml:space="preserve">post</t>
+  </si>
+  <si>
     <t xml:space="preserve">line_id</t>
   </si>
   <si>
@@ -1451,12 +1454,6 @@
   </si>
   <si>
     <t xml:space="preserve">l10n_it_invoices_data_communication_fatturapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_reverse_charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_split_payment</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_vat_registries_split_payment</t>
@@ -2677,9 +2674,9 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N58" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N267" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="C279" activeCellId="0" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3945,13 +3942,14 @@
         <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>129</v>
+      <c r="G71" s="0"/>
+      <c r="K71" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,11 +3960,10 @@
         <v>32</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="L72" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,11 +3974,11 @@
         <v>32</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G73" s="2"/>
       <c r="L73" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,120 +3989,124 @@
         <v>32</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G74" s="2"/>
       <c r="L74" s="1" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2"/>
       <c r="L75" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="L76" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>32</v>
@@ -4113,38 +4114,38 @@
       <c r="D83" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>32</v>
@@ -4152,302 +4153,296 @@
       <c r="D86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="G87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S96" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>170</v>
+      <c r="E97" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>172</v>
+      <c r="E98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE98" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>38</v>
@@ -4456,413 +4451,416 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>127</v>
+        <v>177</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>179</v>
+        <v>116</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>83</v>
+        <v>181</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>0</v>
@@ -4870,429 +4868,429 @@
       <c r="D128" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>222</v>
+      <c r="G128" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F130" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P132" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P133" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P134" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P135" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F136" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P136" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P137" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P138" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P140" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P141" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P142" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P143" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="P143" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P144" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P145" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P146" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P147" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P148" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P149" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P150" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>275</v>
@@ -5300,667 +5298,667 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="G161" s="2"/>
-      <c r="J161" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G162" s="2"/>
       <c r="J162" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G163" s="2"/>
       <c r="J163" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G164" s="2"/>
       <c r="J164" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G165" s="2"/>
       <c r="J165" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="J166" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Z171" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE171" s="1" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H172" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z172" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Z172" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="AD172" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AE172" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z173" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>314</v>
+      <c r="AD173" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>322</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>327</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>328</v>
+        <v>126</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>336</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>337</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>340</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>343</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>344</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="J193" s="1" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J194" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>349</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>350</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>353</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>354</v>
@@ -5971,122 +5969,122 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>355</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>356</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>358</v>
+      <c r="J203" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>360</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>362</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>365</v>
@@ -6097,1001 +6095,995 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>366</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>367</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>372</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>373</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>376</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>377</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>381</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>382</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Z225" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AD225" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE225" s="1" t="s">
-        <v>387</v>
+      <c r="G225" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z226" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="Z226" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="AD226" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z227" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>391</v>
+      <c r="AD227" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE227" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="U228" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="U229" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>395</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>396</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>401</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>405</v>
+      <c r="I236" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>411</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>412</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>414</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>415</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D245" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>424</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>425</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D250" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="I250" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>334</v>
+      <c r="I251" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>430</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>432</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I255" s="2" t="s">
-        <v>172</v>
+      <c r="G255" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G256" s="2"/>
-      <c r="J256" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="U256" s="1" t="s">
-        <v>436</v>
+      <c r="I256" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G257" s="2"/>
       <c r="J257" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="U257" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="U257" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="J258" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="U258" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H259" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H260" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D261" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D262" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H262" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D264" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H264" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z267" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD267" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE267" s="1" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z268" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>459</v>
+      <c r="AD268" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE268" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D269" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H269" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D272" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H272" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D274" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H274" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O275" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S275" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="T275" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H276" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O276" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S276" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="S276" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC276" s="2" t="s">
+      <c r="T276" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H277" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S277" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="S277" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="AC277" s="2" t="s">
         <v>96</v>
@@ -7099,10 +7091,10 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>96</v>
@@ -7110,16 +7102,19 @@
       <c r="H278" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="S278" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="AC278" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>96</v>
@@ -7127,16 +7122,25 @@
       <c r="H279" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AC279" s="2" t="s">
+      <c r="O279" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE279" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>96</v>
@@ -7144,7 +7148,7 @@
       <c r="H280" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O280" s="2" t="s">
+      <c r="S280" s="2" t="s">
         <v>96</v>
       </c>
       <c r="Z280" s="1" t="s">
@@ -7159,847 +7163,835 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="S281" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z281" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD281" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE281" s="1" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>485</v>
+        <v>96</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>486</v>
       </c>
+      <c r="I284" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>96</v>
+        <v>487</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>96</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>488</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D292" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H292" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H296" s="1" t="s">
         <v>506</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G297" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="J297" s="1" t="s">
-        <v>346</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>508</v>
+        <v>96</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>509</v>
       </c>
+      <c r="O298" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z298" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD298" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE298" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>96</v>
+        <v>510</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="O299" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z299" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD299" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE299" s="1" t="s">
-        <v>96</v>
+        <v>511</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>520</v>
+        <v>331</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>521</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>330</v>
+        <v>522</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>527</v>
+        <v>428</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>528</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J310" s="1" t="s">
-        <v>341</v>
+      <c r="G310" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G315" s="2" t="s">
         <v>539</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>300</v>
+        <v>366</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>365</v>
+        <v>542</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>301</v>
+        <v>543</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G321" s="2" t="s">
         <v>548</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I322" s="2" t="s">
-        <v>300</v>
+      <c r="Z322" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD322" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE322" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="Z323" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AD323" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE323" s="1" t="s">
-        <v>551</v>
+      <c r="I323" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I324" s="2" t="s">
         <v>553</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G325" s="2" t="s">
         <v>555</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>556</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>379</v>
+        <v>557</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I328" s="2" t="s">
         <v>560</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G330" s="2" t="s">
         <v>564</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I332" s="2" t="s">
         <v>568</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G333" s="2" t="s">
         <v>570</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I334" s="2" t="s">
         <v>572</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G336" s="2" t="s">
         <v>576</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D337" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="S337" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="S338" s="2" t="s">
         <v>578</v>
@@ -8007,1401 +7999,1401 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="S339" s="2" t="s">
         <v>579</v>
+      </c>
+      <c r="Z339" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD339" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE339" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="Z340" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AD340" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="AE340" s="1" t="s">
-        <v>581</v>
+      <c r="I340" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D341" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I341" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I342" s="2" t="s">
         <v>583</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>585</v>
+        <v>318</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G344" s="2" t="s">
-        <v>317</v>
+      <c r="I344" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I346" s="2" t="s">
         <v>590</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G349" s="2" t="s">
         <v>596</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I351" s="2" t="s">
         <v>600</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G352" s="2" t="s">
         <v>602</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I354" s="2" t="s">
         <v>606</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G355" s="2" t="s">
         <v>608</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>611</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>543</v>
+        <v>126</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>612</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>126</v>
+        <v>613</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I359" s="2" t="s">
         <v>614</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G360" s="2" t="s">
         <v>616</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D361" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I361" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="I361" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="I362" s="2" t="s">
-        <v>618</v>
+      <c r="G362" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G364" s="2" t="s">
         <v>623</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I365" s="2" t="s">
         <v>625</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G366" s="2" t="s">
         <v>627</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>628</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>306</v>
+        <v>629</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>630</v>
+        <v>352</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I369" s="2" t="s">
-        <v>351</v>
+        <v>630</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>631</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G373" s="2" t="s">
         <v>637</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>644</v>
+        <v>426</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>641</v>
+        <v>305</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>304</v>
+        <v>644</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G382" s="2" t="s">
         <v>652</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>653</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>126</v>
+        <v>638</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>654</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="I385" s="2" t="s">
         <v>656</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G386" s="2" t="s">
-        <v>658</v>
+      <c r="I386" s="2" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>658</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>652</v>
+        <v>333</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>659</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>332</v>
+        <v>660</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="I389" s="2" t="s">
         <v>661</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G390" s="2" t="s">
         <v>663</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I393" s="2" t="s">
         <v>669</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G394" s="2" t="s">
         <v>671</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="I395" s="2" t="s">
         <v>673</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G396" s="2" t="s">
         <v>675</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>676</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>354</v>
+        <v>677</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>678</v>
+        <v>352</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>679</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>680</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>681</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>682</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>352</v>
+        <v>677</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>683</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>685</v>
+        <v>335</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="I405" s="2" t="s">
-        <v>334</v>
+      <c r="G405" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G406" s="2" t="s">
         <v>688</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D407" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z407" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I407" s="2" t="s">
-        <v>334</v>
+      <c r="AD407" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE407" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z408" s="1" t="s">
+      <c r="A408" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="AD408" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="AE408" s="1" t="s">
-        <v>690</v>
+      <c r="B408" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="H409" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="J409" s="1" t="s">
+      <c r="A409" s="2" t="s">
         <v>694</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F410" s="1" t="s">
-        <v>696</v>
+      <c r="D410" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>697</v>
+        <v>219</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>218</v>
+        <v>697</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>138</v>
+        <v>698</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D421" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="J421" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="J421" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="J422" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>32</v>
+      <c r="C424" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="J424" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>708</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>172</v>
+        <v>709</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G428" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>714</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G432" s="2" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>172</v>
+        <v>709</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9409,240 +9401,240 @@
         <v>717</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D438" s="1" t="s">
-        <v>719</v>
+      <c r="G438" s="2"/>
+      <c r="H438" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G439" s="2"/>
       <c r="H439" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J439" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G440" s="2"/>
       <c r="H440" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J440" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G441" s="2"/>
       <c r="H441" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J441" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G442" s="2"/>
       <c r="H442" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G443" s="2"/>
-      <c r="H443" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="J443" s="1" t="s">
-        <v>730</v>
+        <v>2</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>2</v>
@@ -9651,146 +9643,143 @@
         <v>755</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>735</v>
+        <v>756</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E454" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="G455" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E458" s="2" t="s">
-        <v>773</v>
+        <v>741</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="H459" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>731</v>
+        <v>178</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>779</v>
+        <v>32</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>780</v>
@@ -9798,32 +9787,32 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E461" s="2" t="s">
+      <c r="D461" s="1" t="s">
         <v>781</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D462" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G462" s="2" t="s">
+      <c r="E462" s="2" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>32</v>
@@ -9834,7 +9823,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>32</v>
@@ -9845,46 +9834,46 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E465" s="2" t="s">
+      <c r="D465" s="1" t="s">
         <v>786</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D467" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G467" s="2" t="s">
+      <c r="E467" s="2" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>32</v>
@@ -9895,7 +9884,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>32</v>
@@ -9906,54 +9895,57 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E470" s="2" t="s">
+      <c r="D470" s="1" t="s">
         <v>793</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D471" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G471" s="2" t="s">
-        <v>795</v>
+      <c r="E471" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1</v>
+        <v>795</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B473" s="2" t="s">
+      <c r="A473" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E473" s="2" t="s">
+      <c r="D473" s="1" t="s">
         <v>796</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>32</v>
@@ -9961,181 +9953,184 @@
       <c r="D474" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="I474" s="1" t="s">
-        <v>96</v>
+      <c r="J474" s="1" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J475" s="1" t="s">
-        <v>799</v>
+        <v>96</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B476" s="1" t="s">
+      <c r="A476" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B476" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="J476" s="1" t="s">
-        <v>96</v>
+        <v>801</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D478" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="E478" s="2" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D480" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="E480" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E481" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G482" s="2" t="s">
-        <v>811</v>
+        <v>111</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H483" s="1" t="s">
-        <v>112</v>
+        <v>699</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>710</v>
+        <v>811</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>812</v>
@@ -10146,13 +10141,13 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>813</v>
@@ -10163,44 +10158,44 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>126</v>
+        <v>715</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>716</v>
+        <v>814</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>815</v>
@@ -10211,117 +10206,111 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>126</v>
+        <v>817</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>818</v>
       </c>
+      <c r="H493" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>819</v>
+        <v>710</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>710</v>
+        <v>126</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="H495" s="1" t="s">
-        <v>126</v>
+        <v>699</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>710</v>
+        <v>820</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>821</v>
+        <v>122</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,23 +10321,14 @@
         <v>32</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G500" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B501" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G501" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -2673,10 +2673,10 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N267" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C279" activeCellId="0" sqref="C279"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N139" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="T161" activeCellId="0" sqref="T161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5391,7 +5391,8 @@
         <v>287</v>
       </c>
       <c r="G161" s="2"/>
-      <c r="H161" s="1" t="s">
+      <c r="H161" s="0"/>
+      <c r="J161" s="1" t="s">
         <v>288</v>
       </c>
     </row>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="830">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -2125,12 +2125,33 @@
     <t xml:space="preserve">refunded</t>
   </si>
   <si>
-    <t xml:space="preserve">product_product</t>
+    <t xml:space="preserve">product.product</t>
   </si>
   <si>
     <t xml:space="preserve">name_template</t>
   </si>
   <si>
+    <t xml:space="preserve">image_small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product.template</t>
+  </si>
+  <si>
     <t xml:space="preserve">project.task</t>
   </si>
   <si>
@@ -2372,9 +2393,6 @@
   </si>
   <si>
     <t xml:space="preserve">fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
   </si>
   <si>
     <t xml:space="preserve">is_company</t>
@@ -2673,10 +2691,10 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N139" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="T161" activeCellId="0" sqref="T161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N463" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="L483" activeCellId="0" sqref="L483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9181,115 +9199,112 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D423" s="1" t="s">
+      <c r="G423" s="2"/>
+      <c r="L423" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="J423" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G424" s="2"/>
+      <c r="L424" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D425" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G425" s="2"/>
+      <c r="L425" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
+      </c>
+      <c r="G426" s="2"/>
+      <c r="L426" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G427" s="2"/>
+      <c r="L427" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D428" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G428" s="2"/>
+      <c r="L428" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="J429" s="1" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>38</v>
@@ -9298,7 +9313,7 @@
         <v>147</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G430" s="2" t="s">
         <v>173</v>
@@ -9306,7 +9321,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>38</v>
@@ -9315,15 +9330,15 @@
         <v>147</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>173</v>
+        <v>716</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>38</v>
@@ -9332,12 +9347,12 @@
         <v>147</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>38</v>
@@ -9346,12 +9361,15 @@
         <v>147</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>699</v>
+        <v>717</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>38</v>
@@ -9360,15 +9378,12 @@
         <v>147</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>173</v>
+        <v>719</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>38</v>
@@ -9377,15 +9392,12 @@
         <v>147</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>173</v>
+        <v>716</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>38</v>
@@ -9394,457 +9406,481 @@
         <v>147</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>709</v>
+        <v>720</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G438" s="2"/>
-      <c r="H438" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="J438" s="1" t="s">
-        <v>721</v>
+        <v>38</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G439" s="2"/>
-      <c r="H439" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="J439" s="1" t="s">
-        <v>723</v>
+        <v>38</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G440" s="2"/>
-      <c r="H440" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="J440" s="1" t="s">
-        <v>725</v>
+        <v>38</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D441" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G441" s="2"/>
-      <c r="H441" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="J441" s="1" t="s">
-        <v>727</v>
+      <c r="G441" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G442" s="2"/>
-      <c r="H442" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="J442" s="1" t="s">
-        <v>729</v>
+        <v>38</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>731</v>
+        <v>32</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>736</v>
+        <v>32</v>
+      </c>
+      <c r="G444" s="2"/>
+      <c r="H444" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G445" s="2"/>
+      <c r="H445" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J445" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>742</v>
+        <v>32</v>
+      </c>
+      <c r="G446" s="2"/>
+      <c r="H446" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>745</v>
+        <v>32</v>
+      </c>
+      <c r="G447" s="2"/>
+      <c r="H447" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>748</v>
+        <v>32</v>
+      </c>
+      <c r="G448" s="2"/>
+      <c r="H448" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="H449" s="1" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>734</v>
+        <v>745</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>760</v>
+        <v>751</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E456" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E457" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="H457" s="1" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H458" s="1" t="s">
-        <v>776</v>
+        <v>763</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E460" s="2" t="s">
-        <v>780</v>
+        <v>2</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="G461" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E464" s="2" t="s">
-        <v>785</v>
+        <v>2</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>178</v>
+        <v>737</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="D465" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E465" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="G465" s="2" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9854,11 +9890,8 @@
       <c r="B466" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D466" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G466" s="2" t="s">
-        <v>789</v>
+      <c r="E466" s="2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9868,8 +9901,11 @@
       <c r="B467" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E467" s="2" t="s">
-        <v>790</v>
+      <c r="D467" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,7 +9916,7 @@
         <v>32</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,7 +9927,7 @@
         <v>32</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9902,10 +9938,10 @@
         <v>32</v>
       </c>
       <c r="D470" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G470" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="G470" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9915,8 +9951,11 @@
       <c r="B471" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E471" s="2" t="s">
-        <v>1</v>
+      <c r="D471" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,270 +9966,249 @@
         <v>32</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D473" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I473" s="1" t="s">
-        <v>96</v>
+      <c r="E473" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D474" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J474" s="1" t="s">
+      <c r="E474" s="2" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="J475" s="1" t="s">
-        <v>96</v>
+      <c r="G475" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>800</v>
+        <v>178</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D476" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>800</v>
+        <v>178</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D477" s="1" t="s">
+      <c r="E477" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D479" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="J479" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B478" s="2" t="s">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E478" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E479" s="2" t="s">
+      <c r="D480" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E480" s="2" t="s">
-        <v>807</v>
+      <c r="J480" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>808</v>
+        <v>178</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G481" s="2" t="s">
-        <v>810</v>
+        <v>703</v>
+      </c>
+      <c r="G481" s="2"/>
+      <c r="L481" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>808</v>
+        <v>178</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H482" s="1" t="s">
-        <v>112</v>
+        <v>705</v>
+      </c>
+      <c r="G482" s="2"/>
+      <c r="L482" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>808</v>
+        <v>178</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="G483" s="2"/>
+      <c r="L483" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E484" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>709</v>
+        <v>809</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G486" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G487" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D488" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E488" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="G488" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>715</v>
+        <v>815</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G490" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>38</v>
@@ -10199,26 +10217,26 @@
         <v>147</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G491" s="2" t="s">
-        <v>126</v>
+        <v>699</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>817</v>
+        <v>719</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>38</v>
@@ -10227,15 +10245,12 @@
         <v>147</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H493" s="1" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>38</v>
@@ -10244,15 +10259,15 @@
         <v>147</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="H494" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G494" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>38</v>
@@ -10261,12 +10276,15 @@
         <v>147</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>699</v>
+        <v>818</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>38</v>
@@ -10275,12 +10293,15 @@
         <v>147</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>712</v>
+        <v>819</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>38</v>
@@ -10289,29 +10310,41 @@
         <v>147</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>820</v>
       </c>
+      <c r="G498" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D499" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>122</v>
+      <c r="G499" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,12 +10355,122 @@
         <v>32</v>
       </c>
       <c r="D500" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D508" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G500" s="2" t="s">
-        <v>823</v>
-      </c>
-    </row>
+      <c r="G508" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="834">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -955,15 +955,15 @@
     <t xml:space="preserve">l10n_it_intrastat</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_intrastat_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_vat_statement_communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">l10n_it_vat_statement_communication_plus</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_it_vat_statement_communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_intrastat_plus</t>
-  </si>
-  <si>
     <t xml:space="preserve">mail_tip</t>
   </si>
   <si>
@@ -2090,6 +2090,18 @@
   </si>
   <si>
     <t xml:space="preserve">account_payment_term_plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_credit_transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_credit_trasfer_ita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_direct_debit_ita</t>
   </si>
   <si>
     <t xml:space="preserve">ir.ui.view</t>
@@ -2691,10 +2703,10 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N463" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="L483" activeCellId="0" sqref="L483"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N341" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D512" activeCellId="0" sqref="D512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5558,6 +5570,7 @@
       <c r="H171" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="Z171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
@@ -8998,145 +9011,157 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="I408" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="U408" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H408" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="J408" s="1" t="s">
-        <v>693</v>
+      <c r="Z408" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z409" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F409" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1</v>
+      <c r="H410" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D411" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>144</v>
+      <c r="F411" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>219</v>
+        <v>700</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>219</v>
+        <v>700</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,41 +9172,35 @@
         <v>32</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>697</v>
+        <v>219</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="J420" s="1" t="s">
-        <v>699</v>
+        <v>137</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>697</v>
+        <v>219</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="J421" s="1" t="s">
-        <v>699</v>
+        <v>139</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,13 +9208,16 @@
         <v>701</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="F422" s="1" t="s">
-        <v>2</v>
+      <c r="J422" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,34 +9225,35 @@
         <v>701</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D423" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="J423" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="G423" s="2"/>
-      <c r="L423" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G424" s="2"/>
-      <c r="L424" s="1" t="s">
         <v>706</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>32</v>
@@ -9245,37 +9268,37 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="G426" s="2"/>
       <c r="L426" s="1" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="G427" s="2"/>
       <c r="L427" s="1" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>32</v>
@@ -9289,17 +9312,18 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G429" s="2"/>
+      <c r="L429" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="J429" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9307,38 +9331,33 @@
         <v>713</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D430" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G430" s="2"/>
+      <c r="L430" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G430" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>147</v>
+      <c r="B431" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G431" s="2" t="s">
+      <c r="J431" s="1" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>38</v>
@@ -9347,12 +9366,15 @@
         <v>147</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>699</v>
+        <v>718</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>38</v>
@@ -9361,15 +9383,15 @@
         <v>147</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>38</v>
@@ -9378,12 +9400,12 @@
         <v>147</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>38</v>
@@ -9392,12 +9414,15 @@
         <v>147</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>38</v>
@@ -9406,15 +9431,12 @@
         <v>147</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G436" s="2" t="s">
-        <v>173</v>
+        <v>723</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>38</v>
@@ -9423,15 +9445,12 @@
         <v>147</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>173</v>
+        <v>720</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>38</v>
@@ -9440,12 +9459,15 @@
         <v>147</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>38</v>
@@ -9454,12 +9476,15 @@
         <v>147</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>699</v>
+        <v>725</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>38</v>
@@ -9468,15 +9493,12 @@
         <v>147</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>173</v>
+        <v>726</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>38</v>
@@ -9485,15 +9507,12 @@
         <v>147</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>173</v>
+        <v>703</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>38</v>
@@ -9502,53 +9521,57 @@
         <v>147</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G444" s="2"/>
-      <c r="H444" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="J444" s="1" t="s">
-        <v>728</v>
+        <v>38</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G445" s="2"/>
-      <c r="H445" s="1" t="s">
+      <c r="D445" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="J445" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>32</v>
@@ -9563,7 +9586,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>32</v>
@@ -9578,7 +9601,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>32</v>
@@ -9593,174 +9616,173 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G449" s="2"/>
+      <c r="H449" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C449" s="1" t="s">
+      <c r="J449" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C450" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G450" s="2"/>
+      <c r="H450" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J450" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="G450" s="2" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C452" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="G452" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G452" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C453" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E453" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G454" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C455" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F455" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F456" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D457" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D457" s="1" t="s">
-        <v>741</v>
+      <c r="H457" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E458" s="2" t="s">
         <v>764</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>2</v>
@@ -9769,143 +9791,149 @@
         <v>765</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E459" s="2" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C460" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E460" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="G460" s="2" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C461" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E461" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E461" s="2" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C462" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G462" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E462" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C463" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E463" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E463" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="H463" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="H464" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C465" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="H465" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E465" s="2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>178</v>
+        <v>741</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E466" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H466" s="1" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>178</v>
+        <v>741</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G467" s="2" t="s">
         <v>789</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9916,7 +9944,7 @@
         <v>32</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,8 +9954,11 @@
       <c r="B469" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E469" s="2" t="s">
-        <v>791</v>
+      <c r="D469" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,11 +9968,8 @@
       <c r="B470" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D470" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G470" s="2" t="s">
-        <v>793</v>
+      <c r="E470" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,10 +9979,7 @@
       <c r="B471" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D471" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G471" s="2" t="s">
+      <c r="E471" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -9965,8 +9990,11 @@
       <c r="B472" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E472" s="2" t="s">
+      <c r="D472" s="1" t="s">
         <v>796</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,8 +10004,11 @@
       <c r="B473" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E473" s="2" t="s">
-        <v>797</v>
+      <c r="D473" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9988,7 +10019,7 @@
         <v>32</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,11 +10029,8 @@
       <c r="B475" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D475" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="G475" s="2" t="s">
-        <v>800</v>
+      <c r="E475" s="2" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10013,7 +10041,7 @@
         <v>32</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1</v>
+        <v>802</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10023,36 +10051,33 @@
       <c r="B477" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E477" s="2" t="s">
-        <v>801</v>
+      <c r="D477" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B478" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D478" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="I478" s="1" t="s">
-        <v>96</v>
+      <c r="E478" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B479" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D479" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="J479" s="1" t="s">
-        <v>804</v>
+      <c r="E479" s="2" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10063,40 +10088,38 @@
         <v>32</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J480" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="I480" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G481" s="2"/>
-      <c r="L481" s="1" t="s">
-        <v>704</v>
+        <v>807</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G482" s="2"/>
-      <c r="L482" s="1" t="s">
-        <v>706</v>
+        <v>809</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10116,127 +10139,129 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>806</v>
+        <v>178</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>808</v>
+        <v>709</v>
+      </c>
+      <c r="G484" s="2"/>
+      <c r="L484" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>806</v>
+        <v>178</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>810</v>
+        <v>711</v>
+      </c>
+      <c r="G485" s="2"/>
+      <c r="L485" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D486" s="1" t="s">
+        <v>811</v>
+      </c>
       <c r="E486" s="2" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D487" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="E487" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D488" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="E488" s="2" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E489" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H490" s="1" t="s">
-        <v>112</v>
+        <v>816</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>699</v>
+        <v>819</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>719</v>
+        <v>111</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>38</v>
@@ -10245,12 +10270,12 @@
         <v>147</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>38</v>
@@ -10259,15 +10284,12 @@
         <v>147</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="G494" s="2" t="s">
-        <v>126</v>
+        <v>723</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>38</v>
@@ -10276,15 +10298,12 @@
         <v>147</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="G495" s="2" t="s">
-        <v>126</v>
+        <v>720</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>38</v>
@@ -10293,7 +10312,7 @@
         <v>147</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G496" s="2" t="s">
         <v>126</v>
@@ -10301,7 +10320,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>38</v>
@@ -10310,12 +10329,15 @@
         <v>147</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>722</v>
+        <v>822</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>38</v>
@@ -10324,7 +10346,7 @@
         <v>147</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G498" s="2" t="s">
         <v>126</v>
@@ -10332,7 +10354,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>38</v>
@@ -10341,26 +10363,29 @@
         <v>147</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G499" s="2" t="s">
-        <v>126</v>
+        <v>726</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>38</v>
@@ -10369,32 +10394,26 @@
         <v>147</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H501" s="1" t="s">
-        <v>716</v>
+        <v>825</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="H502" s="1" t="s">
-        <v>126</v>
+        <v>827</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>38</v>
@@ -10403,12 +10422,15 @@
         <v>147</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>699</v>
+        <v>828</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>38</v>
@@ -10417,12 +10439,15 @@
         <v>147</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>38</v>
@@ -10431,43 +10456,71 @@
         <v>147</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>826</v>
+        <v>723</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>122</v>
+        <v>720</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D508" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D510" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G508" s="2" t="s">
-        <v>829</v>
+      <c r="G510" s="2" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -2766,9 +2766,9 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N1" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="630" topLeftCell="N181" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G199" activeCellId="0" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2776,7 +2776,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="1" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="27.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="2" width="9.14"/>
   </cols>
   <sheetData>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="transodoo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="transodoo" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="851">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">kind_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nature_id</t>
   </si>
   <si>
     <t xml:space="preserve">account_collected_id</t>
@@ -2758,6 +2755,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2765,10 +2868,10 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="630" topLeftCell="N181" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G199" activeCellId="0" sqref="G199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="630" topLeftCell="N98" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="S117" activeCellId="0" sqref="S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4713,9 +4816,7 @@
       <c r="H117" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="S117" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="S117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
@@ -4725,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>85</v>
@@ -4739,10 +4840,10 @@
         <v>32</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,31 +4857,31 @@
         <v>86</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,91 +4892,91 @@
         <v>38</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>149</v>
@@ -4920,13 +5021,13 @@
         <v>38</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,10 +5038,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>149</v>
@@ -4948,10 +5049,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>81</v>
@@ -4960,10 +5061,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>115</v>
@@ -4974,10 +5075,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>140</v>
@@ -4988,13 +5089,13 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>84</v>
@@ -5003,21 +5104,21 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D130" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>0</v>
@@ -5026,15 +5127,15 @@
         <v>84</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S131" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="S131" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>0</v>
@@ -5048,167 +5149,167 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I136" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>163</v>
@@ -5216,1581 +5317,1581 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P157" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P158" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P159" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P160" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P161" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P162" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P163" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P164" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="P164" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P165" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="P165" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P166" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="P166" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P167" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P168" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="P168" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P169" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="P169" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P170" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="P170" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F171" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P171" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="P171" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P172" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F173" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P173" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="P173" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P174" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="P174" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P175" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="P175" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D176" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D177" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D178" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D179" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D180" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D181" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D182" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D183" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="2"/>
       <c r="J183" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D184" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G184" s="3"/>
       <c r="J184" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D185" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G185" s="3"/>
       <c r="J185" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D186" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D187" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J187" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D188" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J188" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D189" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G189" s="3"/>
       <c r="J189" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D190" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G190" s="3"/>
       <c r="J190" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D191" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G191" s="3"/>
       <c r="J191" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H192" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z192" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Z192" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="AD192" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE192" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H193" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z193" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Z193" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="AD193" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE193" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G195" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="J199" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D207" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G207" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G208" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G212" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J213" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G219" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D222" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D224" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H224" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="Z224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z226" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z226" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="AD226" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z227" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="Z227" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="AD227" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AE227" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="U229" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="U229" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D231" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G237" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G238" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G239" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I240" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="I240" s="3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G241" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G244" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D245" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H245" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H246" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D248" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G248" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G249" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>149</v>
@@ -6798,27 +6899,27 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G251" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>149</v>
@@ -6826,13 +6927,13 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>149</v>
@@ -6840,13 +6941,13 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>149</v>
@@ -6854,349 +6955,349 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H256" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G259" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D261" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I261" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="I261" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G273" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D274" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G274" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D275" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G275" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D278" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G278" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>149</v>
@@ -7204,109 +7305,109 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G280" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H281" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G282" s="3"/>
       <c r="J282" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="U282" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="U282" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G283" s="3"/>
       <c r="J283" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U283" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="U283" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H284" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z284" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="Z284" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="AD284" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE284" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O285" s="3" t="s">
         <v>84</v>
       </c>
       <c r="S285" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T285" s="1" t="s">
         <v>84</v>
@@ -7314,19 +7415,19 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H286" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S286" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="S286" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="AC286" s="3" t="s">
         <v>84</v>
@@ -7334,16 +7435,16 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S287" s="3" t="s">
         <v>84</v>
@@ -7354,16 +7455,16 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O288" s="3" t="s">
         <v>84</v>
@@ -7380,16 +7481,16 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S289" s="3" t="s">
         <v>84</v>
@@ -7406,16 +7507,16 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>84</v>
@@ -7423,16 +7524,16 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O291" s="3" t="s">
         <v>84</v>
@@ -7449,1085 +7550,1085 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z292" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD292" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE292" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D293" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G293" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G294" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D295" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G295" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D296" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G296" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="G296" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D297" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H297" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D298" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H298" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D299" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H299" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D300" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H300" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D301" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H301" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D302" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="U302" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I302" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="U302" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="Z302" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="U303" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I303" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="U303" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="Z303" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D304" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H304" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="H304" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D305" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G305" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D306" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I306" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G307" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J307" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="J307" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D309" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H309" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D310" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H310" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D312" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G312" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="G312" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D313" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G313" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D314" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J314" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="J314" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G315" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z317" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="Z317" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="AD317" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AE317" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H318" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D319" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I319" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D320" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H320" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D321" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H321" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D322" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J322" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="J322" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D323" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G324" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="G324" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D325" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J325" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="J325" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D326" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J326" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="J326" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D328" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I328" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="I328" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D329" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I329" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="I329" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G330" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="G330" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G331" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="G331" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D332" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H332" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I333" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="I333" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I336" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="I336" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D337" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G337" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D338" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I338" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D339" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G339" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="G339" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D340" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D341" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G341" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S343" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S344" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D345" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z345" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Z345" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="AD345" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AE345" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D347" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I347" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="I347" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D349" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G349" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="G349" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D351" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I351" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="I351" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D352" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I352" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="I352" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D353" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G353" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D354" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G354" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D356" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G356" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D357" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I357" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="I357" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D358" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I358" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="I358" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D359" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G359" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D360" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I360" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="I360" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D361" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I361" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="I361" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D363" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G363" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="G363" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D364" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I364" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="I364" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I366" s="3" t="s">
         <v>149</v>
@@ -8535,503 +8636,503 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D367" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I367" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="I367" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D368" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G368" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="G368" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D369" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I369" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="I369" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D371" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H371" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D372" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J372" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="J372" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D373" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H373" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="H373" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D374" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G374" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="G374" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D375" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G375" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D376" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I376" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="I376" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D377" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J377" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="J377" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D378" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G378" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="G378" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D381" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I381" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="I381" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D383" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H383" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="H383" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D385" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G385" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="G385" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D386" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G386" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D387" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G387" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D388" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I388" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="I388" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D389" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I389" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="I389" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D391" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I391" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="I391" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D393" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H393" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D394" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D395" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G395" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D396" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G396" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D397" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H397" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D399" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D400" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G400" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="G400" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D401" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G401" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="G401" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I402" s="3" t="s">
         <v>149</v>
@@ -9039,469 +9140,469 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D403" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I403" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="I403" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D406" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G406" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D409" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I409" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="I409" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D410" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G410" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="G410" s="3" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D411" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I411" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="I411" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D412" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I412" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="I412" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D413" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I413" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="I413" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D414" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I414" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="I414" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D416" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H416" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="H416" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D417" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J417" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="J417" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D418" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G418" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="G418" s="3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D420" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G420" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D421" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J421" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="J421" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D422" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I422" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="I422" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D423" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G423" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D424" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I424" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="I424" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D429" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J429" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="J429" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J431" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D432" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H432" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="H432" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J433" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="H435" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="H435" s="1" t="s">
+      <c r="J435" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="J435" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>32</v>
@@ -9512,7 +9613,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>32</v>
@@ -9521,12 +9622,12 @@
         <v>84</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>32</v>
@@ -9540,7 +9641,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>32</v>
@@ -9551,7 +9652,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>32</v>
@@ -9565,7 +9666,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>32</v>
@@ -9579,7 +9680,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>32</v>
@@ -9590,7 +9691,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>32</v>
@@ -9604,7 +9705,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>32</v>
@@ -9618,7 +9719,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>32</v>
@@ -9632,7 +9733,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>32</v>
@@ -9643,7 +9744,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>38</v>
@@ -9652,15 +9753,15 @@
         <v>168</v>
       </c>
       <c r="D447" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J447" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="J447" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>38</v>
@@ -9669,66 +9770,66 @@
         <v>168</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J448" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="G449" s="3"/>
       <c r="L449" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G450" s="3"/>
       <c r="L450" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G451" s="3"/>
       <c r="L451" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>2</v>
@@ -9736,66 +9837,66 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G453" s="3"/>
       <c r="L453" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G454" s="3"/>
       <c r="L454" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G455" s="3"/>
       <c r="L455" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D456" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D456" s="1" t="s">
+      <c r="J456" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="J456" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>32</v>
@@ -9810,7 +9911,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>32</v>
@@ -9825,7 +9926,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>32</v>
@@ -9840,7 +9941,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>32</v>
@@ -9855,7 +9956,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>32</v>
@@ -9870,7 +9971,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>32</v>
@@ -9885,7 +9986,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>32</v>
@@ -9900,7 +10001,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>32</v>
@@ -9915,7 +10016,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>32</v>
@@ -9930,7 +10031,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>32</v>
@@ -9945,7 +10046,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>32</v>
@@ -9960,7 +10061,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>32</v>
@@ -9975,7 +10076,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>32</v>
@@ -9990,7 +10091,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>32</v>
@@ -10005,7 +10106,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>32</v>
@@ -10020,7 +10121,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>32</v>
@@ -10035,7 +10136,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>32</v>
@@ -10050,7 +10151,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>32</v>
@@ -10065,7 +10166,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>32</v>
@@ -10080,7 +10181,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>32</v>
@@ -10095,7 +10196,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>32</v>
@@ -10110,7 +10211,7 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>32</v>
@@ -10125,7 +10226,7 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>32</v>
@@ -10140,7 +10241,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>38</v>
@@ -10149,15 +10250,15 @@
         <v>168</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>38</v>
@@ -10166,15 +10267,15 @@
         <v>168</v>
       </c>
       <c r="D481" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G481" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="G481" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>38</v>
@@ -10183,12 +10284,12 @@
         <v>168</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>38</v>
@@ -10197,15 +10298,15 @@
         <v>168</v>
       </c>
       <c r="D483" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G483" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="G483" s="3" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>38</v>
@@ -10214,12 +10315,12 @@
         <v>168</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>38</v>
@@ -10228,12 +10329,12 @@
         <v>168</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>38</v>
@@ -10242,15 +10343,15 @@
         <v>168</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>38</v>
@@ -10259,15 +10360,15 @@
         <v>168</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>38</v>
@@ -10276,12 +10377,12 @@
         <v>168</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>38</v>
@@ -10290,12 +10391,12 @@
         <v>168</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>38</v>
@@ -10304,15 +10405,15 @@
         <v>168</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>38</v>
@@ -10321,15 +10422,15 @@
         <v>168</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>38</v>
@@ -10338,455 +10439,455 @@
         <v>168</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G494" s="3"/>
       <c r="H494" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J494" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="J494" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G495" s="3"/>
       <c r="H495" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="J495" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="J495" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G496" s="3"/>
       <c r="H496" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J496" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="J496" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G497" s="3"/>
       <c r="H497" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J497" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="J497" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G498" s="3"/>
       <c r="H498" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="J498" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="J498" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C499" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D499" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C500" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D500" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D500" s="1" t="s">
+      <c r="E500" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E500" s="3" t="s">
+      <c r="G500" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="G500" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C501" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D501" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D501" s="1" t="s">
+      <c r="E501" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C502" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D502" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="G502" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="G502" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C503" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D503" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D503" s="1" t="s">
+      <c r="F503" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C504" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D504" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D504" s="1" t="s">
+      <c r="F504" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C505" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D505" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D505" s="1" t="s">
+      <c r="H505" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="H505" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C506" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D506" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D506" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="F506" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C508" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D508" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D508" s="1" t="s">
+      <c r="E508" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C509" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D509" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D509" s="1" t="s">
+      <c r="E509" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="E509" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C510" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D510" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D510" s="1" t="s">
+      <c r="G510" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="G510" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C511" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D511" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="D511" s="1" t="s">
+      <c r="E511" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="E511" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C512" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D512" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="E512" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C513" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D513" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="D513" s="1" t="s">
+      <c r="E513" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="E513" s="3" t="s">
+      <c r="H513" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="H513" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C514" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F514" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D514" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F514" s="1" t="s">
+      <c r="H514" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C515" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D515" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D515" s="1" t="s">
+      <c r="E515" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="E515" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D516" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G516" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G517" s="3"/>
       <c r="L517" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G518" s="3"/>
       <c r="L518" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G519" s="3"/>
       <c r="L519" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>84</v>
@@ -10794,13 +10895,13 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J521" s="1" t="s">
         <v>84</v>
@@ -10808,129 +10909,129 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D522" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G522" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="G522" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D523" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G523" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="G523" s="3" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D524" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G524" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="G524" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D525" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="J525" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="J525" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>32</v>
@@ -10941,71 +11042,71 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D534" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B534" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D534" s="1" t="s">
+      <c r="E534" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D535" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E535" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D536" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E536" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>32</v>
@@ -11016,21 +11117,21 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D539" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G539" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>32</v>
@@ -11044,7 +11145,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>38</v>
@@ -11053,12 +11154,12 @@
         <v>168</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>38</v>
@@ -11067,12 +11168,12 @@
         <v>168</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>38</v>
@@ -11081,12 +11182,12 @@
         <v>168</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>38</v>
@@ -11095,7 +11196,7 @@
         <v>168</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G544" s="3" t="s">
         <v>149</v>
@@ -11103,7 +11204,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>38</v>
@@ -11112,7 +11213,7 @@
         <v>168</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G545" s="3" t="s">
         <v>149</v>
@@ -11120,7 +11221,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>38</v>
@@ -11129,7 +11230,7 @@
         <v>168</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G546" s="3" t="s">
         <v>149</v>
@@ -11137,7 +11238,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>38</v>
@@ -11146,12 +11247,12 @@
         <v>168</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>38</v>
@@ -11160,7 +11261,7 @@
         <v>168</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G548" s="3" t="s">
         <v>149</v>
@@ -11168,7 +11269,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>38</v>
@@ -11177,7 +11278,7 @@
         <v>168</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>149</v>
@@ -11185,18 +11286,18 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D550" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D550" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>38</v>
@@ -11205,12 +11306,12 @@
         <v>168</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>38</v>
@@ -11219,7 +11320,7 @@
         <v>168</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H552" s="1" t="s">
         <v>149</v>
@@ -11227,7 +11328,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>38</v>
@@ -11236,12 +11337,12 @@
         <v>168</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>38</v>
@@ -11250,12 +11351,12 @@
         <v>168</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>38</v>
@@ -11264,26 +11365,26 @@
         <v>168</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D556" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D556" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>32</v>
@@ -11294,13 +11395,13 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G558" s="3" t="s">
         <v>100</v>

--- a/clodoo/clodoo/transodoo.xlsx
+++ b/clodoo/clodoo/transodoo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="855">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -913,6 +913,12 @@
     <t xml:space="preserve">base.partner_admin</t>
   </si>
   <si>
+    <t xml:space="preserve">base.user_root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.user_admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">default_barcode_nomenclature</t>
   </si>
   <si>
@@ -2438,6 +2444,24 @@
   </si>
   <si>
     <t xml:space="preserve">Warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.group_sale_salesman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_team.group_sale_salesman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.group_sale_salesman_all_leads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_team.group_sale_salesman_all_leads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.group_sale_manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_team.group_sale_manager</t>
   </si>
   <si>
     <t xml:space="preserve">customer_payment_mode</t>
@@ -2854,14 +2878,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z559"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C488" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O162" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A488" activeCellId="0" sqref="A488"/>
-      <selection pane="bottomRight" activeCell="A499" activeCellId="0" sqref="A499"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+      <selection pane="bottomRight" activeCell="D184" activeCellId="0" sqref="B:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5861,9 +5885,10 @@
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="2"/>
-      <c r="J183" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="J183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
@@ -5876,9 +5901,11 @@
         <v>297</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="J184" s="1" t="s">
+      <c r="H184" s="2"/>
+      <c r="I184" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="J184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
@@ -5905,6 +5932,7 @@
       <c r="D186" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="G186" s="3"/>
       <c r="J186" s="1" t="s">
         <v>302</v>
       </c>
@@ -5947,7 +5975,6 @@
       <c r="D189" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G189" s="3"/>
       <c r="J189" s="1" t="s">
         <v>308</v>
       </c>
@@ -5984,27 +6011,22 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H192" s="1" t="s">
+      <c r="G192" s="3"/>
+      <c r="J192" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="X192" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z192" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>189</v>
@@ -6024,21 +6046,27 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="X194" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z194" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>189</v>
@@ -6052,7 +6080,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>189</v>
@@ -6060,72 +6088,72 @@
       <c r="D196" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J196" s="1" t="s">
-        <v>321</v>
+      <c r="G196" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="J200" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>189</v>
@@ -6133,97 +6161,97 @@
       <c r="D201" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>321</v>
+      <c r="G201" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>321</v>
+        <v>332</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G206" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>189</v>
@@ -6237,7 +6265,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>189</v>
@@ -6245,55 +6273,55 @@
       <c r="D209" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J209" s="1" t="s">
-        <v>321</v>
+      <c r="G209" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>321</v>
+        <v>342</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>189</v>
@@ -6301,13 +6329,13 @@
       <c r="D213" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="G213" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>189</v>
@@ -6316,68 +6344,68 @@
         <v>347</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J215" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G218" s="3" t="s">
         <v>352</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>189</v>
@@ -6391,7 +6419,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>189</v>
@@ -6400,40 +6428,40 @@
         <v>355</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>189</v>
@@ -6442,27 +6470,26 @@
         <v>359</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H224" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X224" s="2"/>
+      <c r="G224" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>189</v>
@@ -6470,30 +6497,28 @@
       <c r="D225" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G225" s="3" t="s">
-        <v>333</v>
-      </c>
+      <c r="H225" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="X225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X226" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Z226" s="1" t="s">
-        <v>364</v>
+      <c r="G226" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>189</v>
@@ -6510,7 +6535,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>189</v>
@@ -6518,13 +6543,16 @@
       <c r="D228" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="X228" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z228" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>189</v>
@@ -6532,13 +6560,13 @@
       <c r="D229" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W229" s="3" t="s">
+      <c r="F229" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>189</v>
@@ -6546,27 +6574,27 @@
       <c r="D230" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>352</v>
+      <c r="W230" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>189</v>
@@ -6574,27 +6602,27 @@
       <c r="D232" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G232" s="3" t="s">
-        <v>354</v>
+      <c r="H232" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H233" s="1" t="s">
         <v>376</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>189</v>
@@ -6602,27 +6630,27 @@
       <c r="D234" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G234" s="3" t="s">
-        <v>376</v>
+      <c r="H234" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>189</v>
@@ -6631,26 +6659,26 @@
         <v>380</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>189</v>
@@ -6664,7 +6692,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>189</v>
@@ -6678,7 +6706,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>189</v>
@@ -6686,13 +6714,13 @@
       <c r="D240" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>189</v>
@@ -6700,13 +6728,13 @@
       <c r="D241" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="I241" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>189</v>
@@ -6714,27 +6742,27 @@
       <c r="D242" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I242" s="3" t="s">
-        <v>186</v>
+      <c r="G242" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H243" s="1" t="s">
         <v>393</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>189</v>
@@ -6742,13 +6770,13 @@
       <c r="D244" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="H244" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>189</v>
@@ -6756,13 +6784,13 @@
       <c r="D245" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="G245" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>189</v>
@@ -6776,7 +6804,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>189</v>
@@ -6784,27 +6812,27 @@
       <c r="D247" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J247" s="1" t="s">
-        <v>384</v>
+      <c r="H247" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G248" s="3" t="s">
         <v>402</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>189</v>
@@ -6818,7 +6846,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>189</v>
@@ -6827,26 +6855,26 @@
         <v>405</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>144</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>407</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>189</v>
@@ -6855,32 +6883,32 @@
         <v>408</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J253" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G253" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>144</v>
@@ -6888,21 +6916,21 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H255" s="1" t="s">
         <v>412</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>189</v>
@@ -6916,7 +6944,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>189</v>
@@ -6925,40 +6953,40 @@
         <v>415</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>346</v>
+        <v>417</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>189</v>
@@ -6966,27 +6994,27 @@
       <c r="D260" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>388</v>
+      <c r="G260" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I261" s="3" t="s">
         <v>421</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>189</v>
@@ -6994,139 +7022,139 @@
       <c r="D262" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>421</v>
+      <c r="I262" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>189</v>
@@ -7135,26 +7163,26 @@
         <v>433</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>189</v>
@@ -7168,7 +7196,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>189</v>
@@ -7182,7 +7210,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>189</v>
@@ -7191,40 +7219,40 @@
         <v>440</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>384</v>
+        <v>442</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G278" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>189</v>
@@ -7232,27 +7260,27 @@
       <c r="D279" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>144</v>
+      <c r="G279" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G280" s="3" t="s">
         <v>446</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>189</v>
@@ -7260,34 +7288,30 @@
       <c r="D281" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H281" s="1" t="s">
+      <c r="G281" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G282" s="3"/>
-      <c r="J282" s="1" t="s">
+      <c r="H282" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="W282" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>79</v>
@@ -7302,30 +7326,28 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H284" s="1" t="s">
+      <c r="G284" s="3"/>
+      <c r="J284" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="X284" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z284" s="1" t="s">
+      <c r="W284" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>79</v>
@@ -7333,22 +7355,19 @@
       <c r="H285" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Q285" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U285" s="3" t="s">
+      <c r="X285" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>79</v>
+      <c r="Z285" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>79</v>
@@ -7356,19 +7375,22 @@
       <c r="H286" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="Q286" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="U286" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="Y286" s="3" t="s">
+      <c r="V286" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>79</v>
@@ -7377,7 +7399,7 @@
         <v>460</v>
       </c>
       <c r="U287" s="3" t="s">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Y287" s="3" t="s">
         <v>79</v>
@@ -7385,41 +7407,38 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q288" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="U288" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X288" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z288" s="1" t="s">
+      <c r="Y288" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="U289" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q289" s="3" t="s">
         <v>79</v>
       </c>
       <c r="X289" s="1" t="s">
@@ -7431,84 +7450,93 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I290" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="U290" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z290" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q291" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X291" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z291" s="1" t="s">
+      <c r="H291" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I291" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>339</v>
+      <c r="J292" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q292" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="X292" s="1" t="s">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z292" s="1" t="s">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G293" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="X293" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z293" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>468</v>
@@ -7519,10 +7547,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>470</v>
@@ -7533,10 +7561,10 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>472</v>
@@ -7547,24 +7575,24 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H297" s="1" t="s">
+      <c r="G297" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>476</v>
@@ -7575,10 +7603,10 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>478</v>
@@ -7589,10 +7617,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>480</v>
@@ -7603,10 +7631,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>482</v>
@@ -7617,36 +7645,30 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I302" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="W302" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="X302" s="1" t="s">
+      <c r="H302" s="1" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>486</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W303" s="1" t="s">
         <v>487</v>
@@ -7657,97 +7679,103 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H304" s="1" t="s">
+      <c r="I304" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="W304" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="X304" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G305" s="3" t="s">
+      <c r="H305" s="1" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="G306" s="3" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G307" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J307" s="1" t="s">
-        <v>327</v>
+      <c r="I307" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>321</v>
+        <v>496</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H309" s="1" t="s">
         <v>497</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>498</v>
@@ -7758,38 +7786,38 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G311" s="3" t="s">
-        <v>333</v>
+        <v>500</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>500</v>
+        <v>336</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>501</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>502</v>
@@ -7800,111 +7828,111 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="G314" s="3" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G315" s="3" t="s">
+      <c r="J315" s="1" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I316" s="3" t="s">
-        <v>321</v>
+      <c r="G316" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="X317" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Z317" s="1" t="s">
-        <v>510</v>
+      <c r="I317" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H318" s="1" t="s">
+      <c r="X318" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z318" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="H319" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H320" s="1" t="s">
+      <c r="I320" s="3" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>517</v>
@@ -7915,66 +7943,66 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="J322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H323" s="1" t="s">
+      <c r="J323" s="1" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G324" s="3" t="s">
+      <c r="H324" s="1" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="J325" s="1" t="s">
+      <c r="G325" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>527</v>
@@ -7985,38 +8013,38 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I327" s="3" t="s">
-        <v>354</v>
+      <c r="J327" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>531</v>
+        <v>356</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>532</v>
@@ -8027,24 +8055,24 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G330" s="3" t="s">
+      <c r="I330" s="3" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>536</v>
@@ -8055,52 +8083,52 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H332" s="1" t="s">
+      <c r="G332" s="3" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="H333" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H334" s="1" t="s">
+      <c r="I334" s="3" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>544</v>
@@ -8111,237 +8139,237 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="H336" s="1" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G337" s="3" t="s">
+      <c r="I337" s="3" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G339" s="3" t="s">
+      <c r="I339" s="3" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H340" s="1" t="s">
+      <c r="G340" s="3" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G341" s="3" t="s">
+      <c r="H341" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>368</v>
+      <c r="G342" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="U343" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>365</v>
       </c>
       <c r="U344" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="X345" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="Z345" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U345" s="3" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I346" s="3" t="s">
-        <v>354</v>
+      <c r="X346" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z346" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>565</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H348" s="1" t="s">
-        <v>564</v>
+      <c r="I348" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G349" s="3" t="s">
         <v>568</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>569</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>375</v>
+        <v>570</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I351" s="3" t="s">
         <v>571</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>572</v>
@@ -8352,24 +8380,24 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G353" s="3" t="s">
+      <c r="I353" s="3" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>576</v>
@@ -8380,52 +8408,52 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>390</v>
+      <c r="G355" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G356" s="3" t="s">
         <v>580</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="I357" s="3" t="s">
+      <c r="G357" s="3" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>583</v>
@@ -8436,38 +8464,38 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G359" s="3" t="s">
+      <c r="I359" s="3" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="G360" s="3" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>589</v>
@@ -8478,192 +8506,192 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="H362" s="1" t="s">
-        <v>338</v>
+      <c r="I362" s="3" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="G363" s="3" t="s">
         <v>593</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="G364" s="3" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>596</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>502</v>
+        <v>597</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>144</v>
+        <v>504</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>599</v>
+        <v>144</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G368" s="3" t="s">
+      <c r="I368" s="3" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I369" s="3" t="s">
+      <c r="G369" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>604</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D371" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I371" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J372" s="1" t="s">
+      <c r="H372" s="1" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="H373" s="1" t="s">
+      <c r="J373" s="1" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G374" s="3" t="s">
+      <c r="H374" s="1" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>613</v>
@@ -8674,150 +8702,150 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I376" s="3" t="s">
+      <c r="G376" s="3" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J377" s="1" t="s">
+      <c r="I377" s="3" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="G378" s="3" t="s">
+      <c r="J378" s="1" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I379" s="3" t="s">
-        <v>384</v>
+        <v>621</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>621</v>
+        <v>388</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>623</v>
+        <v>399</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H382" s="1" t="s">
-        <v>411</v>
+      <c r="I382" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>626</v>
+        <v>413</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G384" s="3" t="s">
-        <v>623</v>
+      <c r="H384" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>630</v>
@@ -8828,10 +8856,10 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>632</v>
@@ -8842,24 +8870,24 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="I388" s="3" t="s">
+      <c r="G388" s="3" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>636</v>
@@ -8870,66 +8898,66 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>638</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D391" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I391" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="I391" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>443</v>
+        <v>641</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>346</v>
+        <v>642</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>642</v>
+        <v>445</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>643</v>
@@ -8940,24 +8968,24 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G395" s="3" t="s">
+      <c r="H395" s="1" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>647</v>
@@ -8968,41 +8996,41 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H397" s="1" t="s">
+      <c r="G397" s="3" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>382</v>
+        <v>651</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>652</v>
+        <v>384</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>653</v>
@@ -9010,24 +9038,24 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G400" s="3" t="s">
+      <c r="H400" s="1" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>656</v>
@@ -9038,150 +9066,150 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="I402" s="3" t="s">
-        <v>144</v>
+      <c r="G402" s="3" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>660</v>
+        <v>144</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>661</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J405" s="1" t="s">
-        <v>412</v>
+        <v>663</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="G406" s="3" t="s">
         <v>664</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="I407" s="3" t="s">
-        <v>657</v>
+        <v>665</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>388</v>
+        <v>659</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>667</v>
+        <v>390</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="G410" s="3" t="s">
+      <c r="I410" s="3" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="I411" s="3" t="s">
+      <c r="G411" s="3" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>672</v>
@@ -9192,10 +9220,10 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>674</v>
@@ -9206,10 +9234,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>676</v>
@@ -9220,321 +9248,321 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>678</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>421</v>
+        <v>679</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="H416" s="1" t="s">
         <v>680</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="J417" s="1" t="s">
+      <c r="H417" s="1" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G418" s="3" t="s">
+      <c r="J418" s="1" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="I419" s="3" t="s">
-        <v>421</v>
+      <c r="G419" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G420" s="3" t="s">
         <v>687</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="J421" s="1" t="s">
+      <c r="G421" s="3" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="I422" s="3" t="s">
+      <c r="J422" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G423" s="3" t="s">
+      <c r="I423" s="3" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I424" s="3" t="s">
+      <c r="G424" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>696</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>410</v>
+        <v>697</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="J429" s="1" t="s">
         <v>701</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="I430" s="3" t="s">
-        <v>441</v>
+      <c r="J430" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="J431" s="1" t="s">
-        <v>446</v>
+        <v>704</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="H432" s="1" t="s">
         <v>705</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="J433" s="1" t="s">
-        <v>448</v>
+      <c r="H433" s="1" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="I434" s="3" t="s">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B435" s="1" t="s">
+      <c r="A435" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D435" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="H435" s="1" t="s">
+      <c r="I435" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="J435" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="3" t="s">
+      <c r="H436" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B436" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>1</v>
+      <c r="J436" s="1" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,88 +9573,88 @@
         <v>27</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G438" s="3" t="s">
-        <v>160</v>
+        <v>79</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G440" s="3" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
-        <v>215</v>
+        <v>716</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,10 +9665,10 @@
         <v>27</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9651,29 +9679,26 @@
         <v>27</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
-        <v>715</v>
+        <v>215</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="J447" s="1" t="s">
-        <v>717</v>
+        <v>155</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>33</v>
@@ -9685,27 +9710,29 @@
         <v>718</v>
       </c>
       <c r="J448" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="G449" s="3"/>
-      <c r="L449" s="1" t="s">
-        <v>721</v>
+      <c r="J449" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>27</v>
@@ -9720,7 +9747,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>27</v>
@@ -9735,7 +9762,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>27</v>
@@ -9743,28 +9770,28 @@
       <c r="D452" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F452" s="1" t="s">
-        <v>2</v>
+      <c r="G452" s="3"/>
+      <c r="L452" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G453" s="3"/>
-      <c r="L453" s="1" t="s">
-        <v>721</v>
+        <v>728</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>27</v>
@@ -9779,7 +9806,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>27</v>
@@ -9793,32 +9820,32 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B456" s="1" t="s">
+      <c r="A456" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B456" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="J456" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G456" s="3"/>
+      <c r="L456" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E457" s="2"/>
-      <c r="F457" s="4" t="s">
-        <v>78</v>
+        <v>731</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,11 +9856,11 @@
         <v>27</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E458" s="2"/>
       <c r="F458" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9848,7 +9875,7 @@
       </c>
       <c r="E459" s="2"/>
       <c r="F459" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,7 +9890,7 @@
       </c>
       <c r="E460" s="2"/>
       <c r="F460" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,7 +9905,7 @@
       </c>
       <c r="E461" s="2"/>
       <c r="F461" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9893,7 +9920,7 @@
       </c>
       <c r="E462" s="2"/>
       <c r="F462" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9908,7 +9935,7 @@
       </c>
       <c r="E463" s="2"/>
       <c r="F463" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9923,7 +9950,7 @@
       </c>
       <c r="E464" s="2"/>
       <c r="F464" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,7 +9965,7 @@
       </c>
       <c r="E465" s="2"/>
       <c r="F465" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9953,7 +9980,7 @@
       </c>
       <c r="E466" s="2"/>
       <c r="F466" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,7 +9995,7 @@
       </c>
       <c r="E467" s="2"/>
       <c r="F467" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9983,7 +10010,7 @@
       </c>
       <c r="E468" s="2"/>
       <c r="F468" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,7 +10025,7 @@
       </c>
       <c r="E469" s="2"/>
       <c r="F469" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10013,7 +10040,7 @@
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,7 +10055,7 @@
       </c>
       <c r="E471" s="2"/>
       <c r="F471" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10043,7 +10070,7 @@
       </c>
       <c r="E472" s="2"/>
       <c r="F472" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10058,7 +10085,7 @@
       </c>
       <c r="E473" s="2"/>
       <c r="F473" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10073,7 +10100,7 @@
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,7 +10115,7 @@
       </c>
       <c r="E475" s="2"/>
       <c r="F475" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,7 +10130,7 @@
       </c>
       <c r="E476" s="2"/>
       <c r="F476" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,7 +10145,7 @@
       </c>
       <c r="E477" s="2"/>
       <c r="F477" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,7 +10160,7 @@
       </c>
       <c r="E478" s="2"/>
       <c r="F478" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10148,29 +10175,27 @@
       </c>
       <c r="E479" s="2"/>
       <c r="F479" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E480" s="2"/>
+      <c r="F480" s="4" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G480" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>33</v>
@@ -10179,15 +10204,15 @@
         <v>163</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>734</v>
+        <v>186</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>33</v>
@@ -10196,12 +10221,15 @@
         <v>163</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>33</v>
@@ -10210,15 +10238,12 @@
         <v>163</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G483" s="3" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>33</v>
@@ -10229,10 +10254,13 @@
       <c r="D484" s="1" t="s">
         <v>737</v>
       </c>
+      <c r="G484" s="3" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>33</v>
@@ -10241,12 +10269,12 @@
         <v>163</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>33</v>
@@ -10255,15 +10283,12 @@
         <v>163</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G486" s="3" t="s">
-        <v>186</v>
+        <v>736</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>33</v>
@@ -10272,7 +10297,7 @@
         <v>163</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>186</v>
@@ -10280,7 +10305,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>33</v>
@@ -10289,12 +10314,15 @@
         <v>163</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>33</v>
@@ -10303,12 +10331,12 @@
         <v>163</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>33</v>
@@ -10317,15 +10345,12 @@
         <v>163</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G490" s="3" t="s">
-        <v>186</v>
+        <v>719</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>33</v>
@@ -10342,7 +10367,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>33</v>
@@ -10351,18 +10376,24 @@
         <v>163</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,17 +10403,13 @@
       <c r="B494" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G494" s="3"/>
-      <c r="H494" s="1" t="s">
+      <c r="D494" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="J494" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>27</v>
@@ -10397,7 +10424,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>27</v>
@@ -10412,7 +10439,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>27</v>
@@ -10427,7 +10454,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>27</v>
@@ -10442,7 +10469,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>27</v>
@@ -10451,27 +10478,28 @@
       <c r="H499" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="K499" s="1" t="s">
-        <v>79</v>
+      <c r="J499" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C500" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G500" s="3"/>
+      <c r="H500" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D500" s="1" t="s">
-        <v>758</v>
+      <c r="K500" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>2</v>
@@ -10482,118 +10510,115 @@
       <c r="D501" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E501" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="G501" s="3" t="s">
-        <v>762</v>
-      </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C502" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E502" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="G502" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C503" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D503" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D503" s="1" t="s">
+      <c r="E503" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="G503" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C504" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D504" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D504" s="1" t="s">
+      <c r="G504" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C505" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D505" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D505" s="1" t="s">
+      <c r="F505" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C506" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D506" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D506" s="1" t="s">
+      <c r="F506" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="H506" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C507" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D507" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D507" s="1" t="s">
+      <c r="H507" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>2</v>
@@ -10602,236 +10627,240 @@
         <v>780</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>760</v>
+        <v>781</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E509" s="3" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C510" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D510" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D510" s="1" t="s">
+      <c r="E510" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C511" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D511" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D511" s="1" t="s">
+      <c r="E511" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="G511" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C512" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D512" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D512" s="1" t="s">
+      <c r="G512" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C513" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D513" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D513" s="1" t="s">
+      <c r="E513" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="E513" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C514" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D514" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D514" s="1" t="s">
+      <c r="E514" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="E514" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C515" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E515" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D515" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="F515" s="1" t="s">
+      <c r="H515" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="H515" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C516" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F516" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D516" s="1" t="s">
+      <c r="H516" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="E516" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>192</v>
+        <v>758</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G517" s="3" t="s">
+      <c r="E517" s="3" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
-        <v>192</v>
+        <v>758</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G518" s="3"/>
-      <c r="L518" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="E518" s="3"/>
+      <c r="G518" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>192</v>
+        <v>758</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G519" s="3"/>
-      <c r="L519" s="1" t="s">
-        <v>723</v>
+        <v>2</v>
+      </c>
+      <c r="E519" s="3"/>
+      <c r="G519" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H519" s="4" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E520" s="3"/>
+      <c r="G520" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B520" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G520" s="3"/>
-      <c r="L520" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="1" t="s">
+      <c r="B521" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="I521" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B522" s="1" t="s">
+      <c r="B522" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="J522" s="1" t="s">
-        <v>79</v>
+        <v>722</v>
+      </c>
+      <c r="G522" s="3"/>
+      <c r="L522" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,10 +10871,11 @@
         <v>27</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G523" s="3" t="s">
-        <v>811</v>
+        <v>724</v>
+      </c>
+      <c r="G523" s="3"/>
+      <c r="L523" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10856,24 +10886,25 @@
         <v>27</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G524" s="3" t="s">
-        <v>813</v>
+        <v>726</v>
+      </c>
+      <c r="G524" s="3"/>
+      <c r="L524" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="3" t="s">
+      <c r="A525" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B525" s="3" t="s">
+      <c r="B525" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G525" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10884,10 +10915,10 @@
         <v>27</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J526" s="1" t="s">
-        <v>817</v>
+        <v>79</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10897,8 +10928,11 @@
       <c r="B527" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E527" s="3" t="s">
+      <c r="D527" s="1" t="s">
         <v>818</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10908,8 +10942,11 @@
       <c r="B528" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E528" s="3" t="s">
-        <v>819</v>
+      <c r="D528" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10919,19 +10956,25 @@
       <c r="B529" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E529" s="3" t="s">
-        <v>820</v>
+      <c r="D529" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="3" t="s">
+      <c r="A530" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B530" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>821</v>
+      <c r="B530" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,7 +10985,7 @@
         <v>27</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10953,7 +10996,7 @@
         <v>27</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,7 +11007,7 @@
         <v>27</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>1</v>
+        <v>828</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10975,163 +11018,148 @@
         <v>27</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>825</v>
+        <v>192</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D535" s="1" t="s">
-        <v>826</v>
-      </c>
       <c r="E535" s="3" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>825</v>
+        <v>192</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D536" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="E536" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>825</v>
+        <v>192</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D537" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="E537" s="3" t="s">
-        <v>831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>825</v>
+        <v>192</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D539" s="1" t="s">
+        <v>834</v>
+      </c>
       <c r="E539" s="3" t="s">
-        <v>93</v>
+        <v>835</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="G540" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H541" s="1" t="s">
-        <v>132</v>
+        <v>838</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D542" s="1" t="s">
-        <v>717</v>
+        <v>27</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D543" s="1" t="s">
-        <v>737</v>
+        <v>27</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>734</v>
+        <v>841</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>33</v>
@@ -11140,15 +11168,12 @@
         <v>163</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="G546" s="3" t="s">
-        <v>144</v>
+        <v>719</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>33</v>
@@ -11157,15 +11182,12 @@
         <v>163</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G547" s="3" t="s">
-        <v>144</v>
+        <v>739</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>33</v>
@@ -11174,12 +11196,12 @@
         <v>163</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>33</v>
@@ -11188,7 +11210,7 @@
         <v>163</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>144</v>
@@ -11196,7 +11218,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>33</v>
@@ -11205,7 +11227,7 @@
         <v>163</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="G550" s="3" t="s">
         <v>144</v>
@@ -11216,10 +11238,16 @@
         <v>840</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,7 +11261,7 @@
         <v>163</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,9 +11275,9 @@
         <v>163</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="H553" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G553" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11264,26 +11292,26 @@
         <v>163</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>737</v>
+        <v>847</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>734</v>
+        <v>849</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>33</v>
@@ -11292,48 +11320,111 @@
         <v>163</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="H556" s="1" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>844</v>
+        <v>737</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>136</v>
+        <v>739</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G559" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G563" s="3" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
